--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,18 +82,21 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
@@ -89,9 +104,6 @@
   </si>
   <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.001279794880928</v>
+        <v>0.9990486977982802</v>
       </c>
       <c r="D3">
         <v>1.000648443431626</v>
       </c>
       <c r="E3">
-        <v>0.9990486977982802</v>
+        <v>1.001279794880928</v>
       </c>
       <c r="F3">
+        <v>1.000648443431626</v>
+      </c>
+      <c r="G3">
         <v>1.001279794880928</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.9971113066543021</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.000836006553673</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.9996991632503726</v>
-      </c>
-      <c r="J3">
-        <v>1.000648443431626</v>
       </c>
       <c r="K3">
         <v>1.001279794880928</v>
@@ -788,7 +680,7 @@
         <v>0.9997705687615303</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.002529017172163</v>
+        <v>0.9981443521734407</v>
       </c>
       <c r="D4">
         <v>1.001221750004034</v>
       </c>
       <c r="E4">
-        <v>0.9981443521734407</v>
+        <v>1.002529017172163</v>
       </c>
       <c r="F4">
+        <v>1.001221750004034</v>
+      </c>
+      <c r="G4">
         <v>1.002529017172163</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.9943628843492789</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.001611414780199</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.9994226793544693</v>
-      </c>
-      <c r="J4">
-        <v>1.001221750004034</v>
       </c>
       <c r="K4">
         <v>1.002529017172163</v>
@@ -850,7 +742,7 @@
         <v>0.9995486829722643</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.004419200224061</v>
+        <v>0.9965797218154733</v>
       </c>
       <c r="D5">
         <v>1.002600192432707</v>
       </c>
       <c r="E5">
-        <v>0.9965797218154733</v>
+        <v>1.004419200224061</v>
       </c>
       <c r="F5">
+        <v>1.002600192432707</v>
+      </c>
+      <c r="G5">
         <v>1.004419200224061</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.9896618534587671</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.003102762113556</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.9988652823243032</v>
-      </c>
-      <c r="J5">
-        <v>1.002600192432707</v>
       </c>
       <c r="K5">
         <v>1.004419200224061</v>
@@ -912,7 +804,7 @@
         <v>0.9992048353948114</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.006272617487314</v>
+        <v>0.9950505837319241</v>
       </c>
       <c r="D6">
         <v>1.003919130473218</v>
       </c>
       <c r="E6">
-        <v>0.9950505837319241</v>
+        <v>1.006272617487314</v>
       </c>
       <c r="F6">
+        <v>1.003919130473218</v>
+      </c>
+      <c r="G6">
         <v>1.006272617487314</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.9850569528801256</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.004561084576708</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.9983223107531303</v>
-      </c>
-      <c r="J6">
-        <v>1.003919130473218</v>
       </c>
       <c r="K6">
         <v>1.006272617487314</v>
@@ -974,7 +866,7 @@
         <v>0.9988637799837367</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,31 +874,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9998857659493007</v>
+        <v>1.000014828218694</v>
       </c>
       <c r="D7">
-        <v>1.000132352030803</v>
+        <v>1.000132352030802</v>
       </c>
       <c r="E7">
-        <v>1.000014828218694</v>
+        <v>0.9998857659493006</v>
       </c>
       <c r="F7">
-        <v>0.9998857659493007</v>
+        <v>1.000132352030802</v>
       </c>
       <c r="G7">
+        <v>0.9998857659493006</v>
+      </c>
+      <c r="H7">
         <v>1.000077569405606</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1.000035028207797</v>
       </c>
-      <c r="I7">
-        <v>0.9999772008030505</v>
-      </c>
       <c r="J7">
-        <v>1.000132352030803</v>
+        <v>0.9999772008030506</v>
       </c>
       <c r="K7">
-        <v>0.9998857659493007</v>
+        <v>0.9998857659493006</v>
       </c>
       <c r="L7">
         <v>1.000014828218694</v>
@@ -1021,22 +913,22 @@
         <v>1.000060736152431</v>
       </c>
       <c r="P7">
-        <v>1.000010982066266</v>
+        <v>1.000010982066265</v>
       </c>
       <c r="Q7">
-        <v>1.000010982066266</v>
+        <v>1.000010982066265</v>
       </c>
       <c r="R7">
-        <v>0.9999796780370245</v>
+        <v>0.9999796780370243</v>
       </c>
       <c r="S7">
-        <v>0.9999796780370245</v>
+        <v>0.9999796780370243</v>
       </c>
       <c r="T7">
         <v>1.000020457435875</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,43 +936,43 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998444458271259</v>
+        <v>1.000052993135931</v>
       </c>
       <c r="D8">
-        <v>1.00011030315878</v>
+        <v>1.000110303158779</v>
       </c>
       <c r="E8">
-        <v>1.000052993135931</v>
+        <v>0.9998444458271261</v>
       </c>
       <c r="F8">
-        <v>0.9998444458271259</v>
+        <v>1.000110303158779</v>
       </c>
       <c r="G8">
+        <v>0.9998444458271261</v>
+      </c>
+      <c r="H8">
         <v>1.000228363766083</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.9999854608560841</v>
       </c>
-      <c r="I8">
-        <v>0.9999921923732513</v>
-      </c>
       <c r="J8">
-        <v>1.00011030315878</v>
+        <v>0.9999921923732511</v>
       </c>
       <c r="K8">
-        <v>0.9998444458271259</v>
+        <v>0.9998444458271261</v>
       </c>
       <c r="L8">
         <v>1.000052993135931</v>
       </c>
       <c r="M8">
-        <v>1.000081648147356</v>
+        <v>1.000081648147355</v>
       </c>
       <c r="N8">
-        <v>1.000081648147356</v>
+        <v>1.000081648147355</v>
       </c>
       <c r="O8">
-        <v>1.000049585716932</v>
+        <v>1.000049585716931</v>
       </c>
       <c r="P8">
         <v>1.000002580707279</v>
@@ -1095,10 +987,10 @@
         <v>0.9999630469872407</v>
       </c>
       <c r="T8">
-        <v>1.000035626519543</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>1.000035626519542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999911190804029</v>
+        <v>1.000026271340202</v>
       </c>
       <c r="D9">
         <v>0.9999875371025266</v>
       </c>
       <c r="E9">
-        <v>1.000026271340202</v>
+        <v>0.9999911190804029</v>
       </c>
       <c r="F9">
+        <v>0.9999875371025266</v>
+      </c>
+      <c r="G9">
         <v>0.9999911190804029</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.000159954996006</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.9999379085173336</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1.000016023257413</v>
-      </c>
-      <c r="J9">
-        <v>0.9999875371025266</v>
       </c>
       <c r="K9">
         <v>0.9999911190804029</v>
@@ -1160,7 +1052,7 @@
         <v>1.000019802382314</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9997224044698119</v>
+        <v>1.000118558054863</v>
       </c>
       <c r="D10">
         <v>1.000172274348856</v>
       </c>
       <c r="E10">
-        <v>1.000118558054863</v>
+        <v>0.9997224044698119</v>
       </c>
       <c r="F10">
+        <v>1.000172274348856</v>
+      </c>
+      <c r="G10">
         <v>0.9997224044698119</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1.000549908324009</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.9999135258472357</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1.000003061137533</v>
-      </c>
-      <c r="J10">
-        <v>1.000172274348856</v>
       </c>
       <c r="K10">
         <v>0.9997224044698119</v>
@@ -1222,7 +1114,7 @@
         <v>1.000079955363718</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000178916355525</v>
+        <v>1.000064140078753</v>
       </c>
       <c r="D11">
         <v>0.9997525131979637</v>
       </c>
       <c r="E11">
-        <v>1.000064140078753</v>
+        <v>1.000178916355525</v>
       </c>
       <c r="F11">
+        <v>0.9997525131979637</v>
+      </c>
+      <c r="G11">
         <v>1.000178916355525</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1.000493627203507</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.9996970889871318</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1.000097601166367</v>
-      </c>
-      <c r="J11">
-        <v>0.9997525131979637</v>
       </c>
       <c r="K11">
         <v>1.000178916355525</v>
@@ -1284,7 +1176,7 @@
         <v>1.000047314498208</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.038835074496009</v>
+        <v>0.9777317828050288</v>
       </c>
       <c r="D12">
         <v>0.9992466283871493</v>
       </c>
       <c r="E12">
-        <v>0.9777317828050288</v>
+        <v>1.038835074496009</v>
       </c>
       <c r="F12">
+        <v>0.9992466283871493</v>
+      </c>
+      <c r="G12">
         <v>1.038835074496009</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.9239866028123825</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1.016547396473286</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.9955461548607842</v>
-      </c>
-      <c r="J12">
-        <v>0.9992466283871493</v>
       </c>
       <c r="K12">
         <v>1.038835074496009</v>
@@ -1346,7 +1238,7 @@
         <v>0.9919822733057732</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,31 +1246,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9794400280826274</v>
+        <v>1.002834898811944</v>
       </c>
       <c r="D13">
         <v>1.025225437342336</v>
       </c>
       <c r="E13">
-        <v>1.002834898811944</v>
+        <v>0.9794400280826275</v>
       </c>
       <c r="F13">
-        <v>0.9794400280826274</v>
+        <v>1.025225437342336</v>
       </c>
       <c r="G13">
+        <v>0.9794400280826275</v>
+      </c>
+      <c r="H13">
         <v>1.018092958882776</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1.004989063806324</v>
       </c>
-      <c r="I13">
-        <v>0.9960142378716772</v>
-      </c>
       <c r="J13">
-        <v>1.025225437342336</v>
+        <v>0.9960142378716773</v>
       </c>
       <c r="K13">
-        <v>0.9794400280826274</v>
+        <v>0.9794400280826275</v>
       </c>
       <c r="L13">
         <v>1.002834898811944</v>
@@ -1399,16 +1291,16 @@
         <v>1.002500121412303</v>
       </c>
       <c r="R13">
-        <v>0.9967350980798837</v>
+        <v>0.996735098079884</v>
       </c>
       <c r="S13">
-        <v>0.9967350980798837</v>
+        <v>0.996735098079884</v>
       </c>
       <c r="T13">
-        <v>1.004432770799614</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>1.004432770799615</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,28 +1308,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9406665565917691</v>
+        <v>0.9910547260780442</v>
       </c>
       <c r="D14">
         <v>1.111091644176128</v>
       </c>
       <c r="E14">
-        <v>0.9910547260780442</v>
+        <v>0.9406665565917691</v>
       </c>
       <c r="F14">
+        <v>1.111091644176128</v>
+      </c>
+      <c r="G14">
         <v>0.9406665565917691</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.9922189759790226</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.045755632239784</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.9763642994547048</v>
-      </c>
-      <c r="J14">
-        <v>1.111091644176128</v>
       </c>
       <c r="K14">
         <v>0.9406665565917691</v>
@@ -1470,7 +1362,7 @@
         <v>1.009525305753242</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.008159857519185</v>
+        <v>0.991220062347043</v>
       </c>
       <c r="D15">
         <v>1.006778233622883</v>
       </c>
       <c r="E15">
-        <v>0.991220062347043</v>
+        <v>1.008159857519185</v>
       </c>
       <c r="F15">
+        <v>1.006778233622883</v>
+      </c>
+      <c r="G15">
         <v>1.008159857519185</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.9655863454539725</v>
       </c>
-      <c r="H15">
-        <v>1.012166626288526</v>
-      </c>
       <c r="I15">
-        <v>0.9961587785934315</v>
+        <v>1.012166626288525</v>
       </c>
       <c r="J15">
-        <v>1.006778233622883</v>
+        <v>0.9961587785934316</v>
       </c>
       <c r="K15">
         <v>1.008159857519185</v>
@@ -1532,7 +1424,7 @@
         <v>0.9966783173041733</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9994428362001637</v>
+        <v>0.9828372490931179</v>
       </c>
       <c r="D16">
-        <v>1.000290060859973</v>
+        <v>1.015183647087739</v>
       </c>
       <c r="E16">
-        <v>1.000184196066066</v>
+        <v>1.020659016192715</v>
       </c>
       <c r="F16">
-        <v>0.9994428362001637</v>
+        <v>1.015183647087739</v>
       </c>
       <c r="G16">
-        <v>1.000562326964654</v>
+        <v>1.020659016192715</v>
       </c>
       <c r="H16">
-        <v>1.000025363012597</v>
+        <v>0.9483297319292695</v>
       </c>
       <c r="I16">
-        <v>0.9999680562497377</v>
+        <v>1.01643235654309</v>
       </c>
       <c r="J16">
-        <v>1.000290060859973</v>
+        <v>0.993863999074262</v>
       </c>
       <c r="K16">
-        <v>0.9994428362001637</v>
+        <v>1.020659016192715</v>
       </c>
       <c r="L16">
-        <v>1.000184196066066</v>
+        <v>0.9828372490931179</v>
       </c>
       <c r="M16">
-        <v>1.00023712846302</v>
+        <v>0.9990104480904284</v>
       </c>
       <c r="N16">
-        <v>1.00023712846302</v>
+        <v>0.9990104480904284</v>
       </c>
       <c r="O16">
-        <v>1.000166539979545</v>
+        <v>1.004817750907982</v>
       </c>
       <c r="P16">
-        <v>0.9999723643754009</v>
+        <v>1.006226637457857</v>
       </c>
       <c r="Q16">
-        <v>0.999972364375401</v>
+        <v>1.006226637457857</v>
       </c>
       <c r="R16">
-        <v>0.9998399823315918</v>
+        <v>1.009834732141572</v>
       </c>
       <c r="S16">
-        <v>0.9998399823315918</v>
+        <v>1.009834732141572</v>
       </c>
       <c r="T16">
-        <v>1.000078806558865</v>
+        <v>0.9962176666533655</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000544297970817</v>
+        <v>0.9887121509135852</v>
       </c>
       <c r="D17">
-        <v>0.999865303292336</v>
+        <v>1.017578116038586</v>
       </c>
       <c r="E17">
-        <v>0.9997671432871017</v>
+        <v>1.00833701203289</v>
       </c>
       <c r="F17">
-        <v>1.000544297970817</v>
+        <v>1.017578116038586</v>
       </c>
       <c r="G17">
-        <v>0.9993263002416375</v>
+        <v>1.00833701203289</v>
       </c>
       <c r="H17">
-        <v>1.000054748028101</v>
+        <v>0.9671802028177737</v>
       </c>
       <c r="I17">
-        <v>0.9999937189141367</v>
+        <v>1.013670102450899</v>
       </c>
       <c r="J17">
-        <v>0.999865303292336</v>
+        <v>0.9944336823508023</v>
       </c>
       <c r="K17">
-        <v>1.000544297970817</v>
+        <v>1.00833701203289</v>
       </c>
       <c r="L17">
-        <v>0.9997671432871017</v>
+        <v>0.9887121509135852</v>
       </c>
       <c r="M17">
-        <v>0.9998162232897189</v>
+        <v>1.003145133476085</v>
       </c>
       <c r="N17">
-        <v>0.9998162232897189</v>
+        <v>1.003145133476085</v>
       </c>
       <c r="O17">
-        <v>0.9998957315358462</v>
+        <v>1.00665345646769</v>
       </c>
       <c r="P17">
-        <v>1.000058914850085</v>
+        <v>1.004875759661687</v>
       </c>
       <c r="Q17">
-        <v>1.000058914850085</v>
+        <v>1.004875759661687</v>
       </c>
       <c r="R17">
-        <v>1.000180260630268</v>
+        <v>1.005741072754488</v>
       </c>
       <c r="S17">
-        <v>1.000180260630268</v>
+        <v>1.005741072754488</v>
       </c>
       <c r="T17">
-        <v>0.9999252519556884</v>
+        <v>0.9983185444340895</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9990089156868734</v>
+        <v>1.000396326176536</v>
       </c>
       <c r="D18">
-        <v>1.0008848762955</v>
+        <v>1.021842908365495</v>
       </c>
       <c r="E18">
-        <v>1.000174583975848</v>
+        <v>0.9841868695181688</v>
       </c>
       <c r="F18">
-        <v>0.9990089156868734</v>
+        <v>1.021842908365495</v>
       </c>
       <c r="G18">
-        <v>1.000508440372816</v>
+        <v>0.9841868695181688</v>
       </c>
       <c r="H18">
-        <v>1.000312272963337</v>
+        <v>1.004626943981428</v>
       </c>
       <c r="I18">
-        <v>0.9998347371863321</v>
+        <v>1.007972169765791</v>
       </c>
       <c r="J18">
-        <v>1.0008848762955</v>
+        <v>0.9956705380968026</v>
       </c>
       <c r="K18">
-        <v>0.9990089156868734</v>
+        <v>0.9841868695181688</v>
       </c>
       <c r="L18">
-        <v>1.000174583975848</v>
+        <v>1.000396326176536</v>
       </c>
       <c r="M18">
-        <v>1.000529730135674</v>
+        <v>1.011119617271016</v>
       </c>
       <c r="N18">
-        <v>1.000529730135674</v>
+        <v>1.011119617271016</v>
       </c>
       <c r="O18">
-        <v>1.000457244411562</v>
+        <v>1.010070468102607</v>
       </c>
       <c r="P18">
-        <v>1.000022791986074</v>
+        <v>1.002142034686733</v>
       </c>
       <c r="Q18">
-        <v>1.000022791986074</v>
+        <v>1.002142034686733</v>
       </c>
       <c r="R18">
-        <v>0.9997693229112737</v>
+        <v>0.9976532433945923</v>
       </c>
       <c r="S18">
-        <v>0.9997693229112737</v>
+        <v>0.9976532433945923</v>
       </c>
       <c r="T18">
-        <v>1.000120637746784</v>
+        <v>1.002449292650704</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.002091314702146</v>
+      </c>
+      <c r="D19">
+        <v>1.026254371536923</v>
+      </c>
+      <c r="E19">
+        <v>0.9781262717842313</v>
+      </c>
+      <c r="F19">
+        <v>1.026254371536923</v>
+      </c>
+      <c r="G19">
+        <v>0.9781262717842313</v>
+      </c>
+      <c r="H19">
+        <v>1.010823517915259</v>
+      </c>
+      <c r="I19">
+        <v>1.008483957343922</v>
+      </c>
+      <c r="J19">
+        <v>0.9951044234436484</v>
+      </c>
+      <c r="K19">
+        <v>0.9781262717842313</v>
+      </c>
+      <c r="L19">
+        <v>1.002091314702146</v>
+      </c>
+      <c r="M19">
+        <v>1.014172843119534</v>
+      </c>
+      <c r="N19">
+        <v>1.014172843119534</v>
+      </c>
+      <c r="O19">
+        <v>1.012276547860997</v>
+      </c>
+      <c r="P19">
+        <v>1.0021573193411</v>
+      </c>
+      <c r="Q19">
+        <v>1.0021573193411</v>
+      </c>
+      <c r="R19">
+        <v>0.9961495574518828</v>
+      </c>
+      <c r="S19">
+        <v>0.9961495574518828</v>
+      </c>
+      <c r="T19">
+        <v>1.003480642787688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000184196066067</v>
+      </c>
+      <c r="D20">
+        <v>1.000290060859973</v>
+      </c>
+      <c r="E20">
+        <v>0.9994428362001637</v>
+      </c>
+      <c r="F20">
+        <v>1.000290060859973</v>
+      </c>
+      <c r="G20">
+        <v>0.9994428362001637</v>
+      </c>
+      <c r="H20">
+        <v>1.000562326964654</v>
+      </c>
+      <c r="I20">
+        <v>1.000025363012597</v>
+      </c>
+      <c r="J20">
+        <v>0.9999680562497377</v>
+      </c>
+      <c r="K20">
+        <v>0.9994428362001637</v>
+      </c>
+      <c r="L20">
+        <v>1.000184196066067</v>
+      </c>
+      <c r="M20">
+        <v>1.00023712846302</v>
+      </c>
+      <c r="N20">
+        <v>1.00023712846302</v>
+      </c>
+      <c r="O20">
+        <v>1.000166539979546</v>
+      </c>
+      <c r="P20">
+        <v>0.9999723643754012</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999723643754012</v>
+      </c>
+      <c r="R20">
+        <v>0.9998399823315918</v>
+      </c>
+      <c r="S20">
+        <v>0.9998399823315918</v>
+      </c>
+      <c r="T20">
+        <v>1.000078806558865</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.999767143287101</v>
+      </c>
+      <c r="D21">
+        <v>0.999865303292336</v>
+      </c>
+      <c r="E21">
+        <v>1.000544297970817</v>
+      </c>
+      <c r="F21">
+        <v>0.999865303292336</v>
+      </c>
+      <c r="G21">
+        <v>1.000544297970817</v>
+      </c>
+      <c r="H21">
+        <v>0.9993263002416379</v>
+      </c>
+      <c r="I21">
+        <v>1.000054748028101</v>
+      </c>
+      <c r="J21">
+        <v>0.9999937189141367</v>
+      </c>
+      <c r="K21">
+        <v>1.000544297970817</v>
+      </c>
+      <c r="L21">
+        <v>0.999767143287101</v>
+      </c>
+      <c r="M21">
+        <v>0.9998162232897185</v>
+      </c>
+      <c r="N21">
+        <v>0.9998162232897185</v>
+      </c>
+      <c r="O21">
+        <v>0.999895731535846</v>
+      </c>
+      <c r="P21">
+        <v>1.000058914850085</v>
+      </c>
+      <c r="Q21">
+        <v>1.000058914850085</v>
+      </c>
+      <c r="R21">
+        <v>1.000180260630268</v>
+      </c>
+      <c r="S21">
+        <v>1.000180260630268</v>
+      </c>
+      <c r="T21">
+        <v>0.9999252519556884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000174583975848</v>
+      </c>
+      <c r="D22">
+        <v>1.0008848762955</v>
+      </c>
+      <c r="E22">
+        <v>0.9990089156868734</v>
+      </c>
+      <c r="F22">
+        <v>1.0008848762955</v>
+      </c>
+      <c r="G22">
+        <v>0.9990089156868734</v>
+      </c>
+      <c r="H22">
+        <v>1.000508440372816</v>
+      </c>
+      <c r="I22">
+        <v>1.000312272963337</v>
+      </c>
+      <c r="J22">
+        <v>0.9998347371863322</v>
+      </c>
+      <c r="K22">
+        <v>0.9990089156868734</v>
+      </c>
+      <c r="L22">
+        <v>1.000174583975848</v>
+      </c>
+      <c r="M22">
+        <v>1.000529730135674</v>
+      </c>
+      <c r="N22">
+        <v>1.000529730135674</v>
+      </c>
+      <c r="O22">
+        <v>1.000457244411562</v>
+      </c>
+      <c r="P22">
+        <v>1.000022791986074</v>
+      </c>
+      <c r="Q22">
+        <v>1.000022791986074</v>
+      </c>
+      <c r="R22">
+        <v>0.9997693229112737</v>
+      </c>
+      <c r="S22">
+        <v>0.9997693229112737</v>
+      </c>
+      <c r="T22">
+        <v>1.000120637746784</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.000960599344232</v>
+      </c>
+      <c r="D23">
+        <v>1.002701003964608</v>
+      </c>
+      <c r="E23">
         <v>0.9961149383695731</v>
       </c>
-      <c r="D19">
+      <c r="F23">
         <v>1.002701003964608</v>
       </c>
-      <c r="E19">
+      <c r="G23">
+        <v>0.9961149383695731</v>
+      </c>
+      <c r="H23">
+        <v>1.002670363709045</v>
+      </c>
+      <c r="I23">
+        <v>1.000801551454535</v>
+      </c>
+      <c r="J23">
+        <v>0.9995478672095232</v>
+      </c>
+      <c r="K23">
+        <v>0.9961149383695731</v>
+      </c>
+      <c r="L23">
         <v>1.000960599344232</v>
       </c>
-      <c r="F19">
-        <v>0.9961149383695731</v>
-      </c>
-      <c r="G19">
-        <v>1.002670363709045</v>
-      </c>
-      <c r="H19">
-        <v>1.000801551454535</v>
-      </c>
-      <c r="I19">
-        <v>0.9995478672095232</v>
-      </c>
-      <c r="J19">
-        <v>1.002701003964608</v>
-      </c>
-      <c r="K19">
-        <v>0.9961149383695731</v>
-      </c>
-      <c r="L19">
-        <v>1.000960599344232</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.00183080165442</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.00183080165442</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.001487718254458</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9999255138928044</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9999255138928044</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9989728700119965</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9989728700119965</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000466054008586</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW25.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9990486977982802</v>
+        <v>1.000969139610949</v>
       </c>
       <c r="D3">
-        <v>1.000648443431626</v>
+        <v>1.022786021498557</v>
       </c>
       <c r="E3">
-        <v>1.001279794880928</v>
+        <v>0.9825539647622457</v>
       </c>
       <c r="F3">
-        <v>1.000648443431626</v>
+        <v>1.022786021498557</v>
       </c>
       <c r="G3">
-        <v>1.001279794880928</v>
+        <v>0.9825539647622457</v>
       </c>
       <c r="H3">
-        <v>0.9971113066543021</v>
+        <v>1.006710693472622</v>
       </c>
       <c r="I3">
-        <v>1.000836006553673</v>
+        <v>1.007894239481267</v>
       </c>
       <c r="J3">
-        <v>0.9996991632503726</v>
+        <v>0.9956002852089351</v>
       </c>
       <c r="K3">
-        <v>1.001279794880928</v>
+        <v>0.9825539647622457</v>
       </c>
       <c r="L3">
-        <v>0.9990486977982802</v>
+        <v>1.000969139610949</v>
       </c>
       <c r="M3">
-        <v>0.9998485706149529</v>
+        <v>1.011877580554753</v>
       </c>
       <c r="N3">
-        <v>0.9998485706149529</v>
+        <v>1.011877580554753</v>
       </c>
       <c r="O3">
-        <v>1.000177715927859</v>
+        <v>1.010549800196924</v>
       </c>
       <c r="P3">
-        <v>1.000325645370278</v>
+        <v>1.00210304195725</v>
       </c>
       <c r="Q3">
-        <v>1.000325645370278</v>
+        <v>1.00210304195725</v>
       </c>
       <c r="R3">
-        <v>1.000564182747941</v>
+        <v>0.9972157726584991</v>
       </c>
       <c r="S3">
-        <v>1.000564182747941</v>
+        <v>0.9972157726584991</v>
       </c>
       <c r="T3">
-        <v>0.9997705687615303</v>
+        <v>1.002752390672429</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9981443521734407</v>
+        <v>1.00074321353429</v>
       </c>
       <c r="D4">
-        <v>1.001221750004034</v>
+        <v>1.022602373711331</v>
       </c>
       <c r="E4">
-        <v>1.002529017172163</v>
+        <v>0.9830424163576275</v>
       </c>
       <c r="F4">
-        <v>1.001221750004034</v>
+        <v>1.022602373711331</v>
       </c>
       <c r="G4">
-        <v>1.002529017172163</v>
+        <v>0.9830424163576275</v>
       </c>
       <c r="H4">
-        <v>0.9943628843492789</v>
+        <v>1.005853052256798</v>
       </c>
       <c r="I4">
-        <v>1.001611414780199</v>
+        <v>1.008029975368059</v>
       </c>
       <c r="J4">
-        <v>0.9994226793544693</v>
+        <v>0.9955826325363375</v>
       </c>
       <c r="K4">
-        <v>1.002529017172163</v>
+        <v>0.9830424163576275</v>
       </c>
       <c r="L4">
-        <v>0.9981443521734407</v>
+        <v>1.00074321353429</v>
       </c>
       <c r="M4">
-        <v>0.9996830510887376</v>
+        <v>1.01167279362281</v>
       </c>
       <c r="N4">
-        <v>0.9996830510887376</v>
+        <v>1.01167279362281</v>
       </c>
       <c r="O4">
-        <v>1.000325838985891</v>
+        <v>1.010458520871226</v>
       </c>
       <c r="P4">
-        <v>1.000631706449879</v>
+        <v>1.002129334534416</v>
       </c>
       <c r="Q4">
-        <v>1.000631706449879</v>
+        <v>1.002129334534416</v>
       </c>
       <c r="R4">
-        <v>1.00110603413045</v>
+        <v>0.9973576049902189</v>
       </c>
       <c r="S4">
-        <v>1.00110603413045</v>
+        <v>0.9973576049902189</v>
       </c>
       <c r="T4">
-        <v>0.9995486829722643</v>
+        <v>1.002642277294074</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9965797218154733</v>
+        <v>1.001395644716981</v>
       </c>
       <c r="D5">
-        <v>1.002600192432707</v>
+        <v>1.02311316981132</v>
       </c>
       <c r="E5">
-        <v>1.004419200224061</v>
+        <v>0.9816542540431288</v>
       </c>
       <c r="F5">
-        <v>1.002600192432707</v>
+        <v>1.02311316981132</v>
       </c>
       <c r="G5">
-        <v>1.004419200224061</v>
+        <v>0.9816542540431288</v>
       </c>
       <c r="H5">
-        <v>0.9896618534587671</v>
+        <v>1.008350408355795</v>
       </c>
       <c r="I5">
-        <v>1.003102762113556</v>
+        <v>1.007618484177897</v>
       </c>
       <c r="J5">
-        <v>0.9988652823243032</v>
+        <v>0.9956401401617252</v>
       </c>
       <c r="K5">
-        <v>1.004419200224061</v>
+        <v>0.9816542540431288</v>
       </c>
       <c r="L5">
-        <v>0.9965797218154733</v>
+        <v>1.001395644716981</v>
       </c>
       <c r="M5">
-        <v>0.9995899571240904</v>
+        <v>1.012254407264151</v>
       </c>
       <c r="N5">
-        <v>0.9995899571240904</v>
+        <v>1.012254407264151</v>
       </c>
       <c r="O5">
-        <v>1.000760892120579</v>
+        <v>1.010709099568733</v>
       </c>
       <c r="P5">
-        <v>1.001199704824081</v>
+        <v>1.002054356190477</v>
       </c>
       <c r="Q5">
-        <v>1.001199704824081</v>
+        <v>1.002054356190477</v>
       </c>
       <c r="R5">
-        <v>1.002004578674076</v>
+        <v>0.9969543306536397</v>
       </c>
       <c r="S5">
-        <v>1.002004578674076</v>
+        <v>0.9969543306536397</v>
       </c>
       <c r="T5">
-        <v>0.9992048353948114</v>
+        <v>1.002962016877808</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9950505837319241</v>
+        <v>1.001790839659091</v>
       </c>
       <c r="D6">
-        <v>1.003919130473218</v>
+        <v>1.023392903863636</v>
       </c>
       <c r="E6">
-        <v>1.006272617487314</v>
+        <v>0.9808473988636359</v>
       </c>
       <c r="F6">
-        <v>1.003919130473218</v>
+        <v>1.023392903863636</v>
       </c>
       <c r="G6">
-        <v>1.006272617487314</v>
+        <v>0.9808473988636359</v>
       </c>
       <c r="H6">
-        <v>0.9850569528801256</v>
+        <v>1.009894446761363</v>
       </c>
       <c r="I6">
-        <v>1.004561084576708</v>
+        <v>1.007339637386363</v>
       </c>
       <c r="J6">
-        <v>0.9983223107531303</v>
+        <v>0.9956848791477273</v>
       </c>
       <c r="K6">
-        <v>1.006272617487314</v>
+        <v>0.9808473988636359</v>
       </c>
       <c r="L6">
-        <v>0.9950505837319241</v>
+        <v>1.001790839659091</v>
       </c>
       <c r="M6">
-        <v>0.9994848571025711</v>
+        <v>1.012591871761364</v>
       </c>
       <c r="N6">
-        <v>0.9994848571025711</v>
+        <v>1.012591871761364</v>
       </c>
       <c r="O6">
-        <v>1.001176932927283</v>
+        <v>1.010841126969697</v>
       </c>
       <c r="P6">
-        <v>1.001747443897485</v>
+        <v>1.002010380795454</v>
       </c>
       <c r="Q6">
-        <v>1.001747443897485</v>
+        <v>1.002010380795454</v>
       </c>
       <c r="R6">
-        <v>1.002878737294942</v>
+        <v>0.9967196353124999</v>
       </c>
       <c r="S6">
-        <v>1.002878737294942</v>
+        <v>0.9967196353124999</v>
       </c>
       <c r="T6">
-        <v>0.9988637799837367</v>
+        <v>1.003158350946969</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000014828218694</v>
+        <v>1.053166327034995</v>
       </c>
       <c r="D7">
-        <v>1.000132352030802</v>
+        <v>0.7192487510515636</v>
       </c>
       <c r="E7">
-        <v>0.9998857659493006</v>
+        <v>1.1028513779999</v>
       </c>
       <c r="F7">
-        <v>1.000132352030802</v>
+        <v>0.7192487510515636</v>
       </c>
       <c r="G7">
-        <v>0.9998857659493006</v>
+        <v>1.1028513779999</v>
       </c>
       <c r="H7">
-        <v>1.000077569405606</v>
+        <v>1.13710697509503</v>
       </c>
       <c r="I7">
-        <v>1.000035028207797</v>
+        <v>0.8540779932971246</v>
       </c>
       <c r="J7">
-        <v>0.9999772008030506</v>
+        <v>1.067651749908842</v>
       </c>
       <c r="K7">
-        <v>0.9998857659493006</v>
+        <v>1.1028513779999</v>
       </c>
       <c r="L7">
-        <v>1.000014828218694</v>
+        <v>1.053166327034995</v>
       </c>
       <c r="M7">
-        <v>1.000073590124748</v>
+        <v>0.8862075390432791</v>
       </c>
       <c r="N7">
-        <v>1.000073590124748</v>
+        <v>0.8862075390432791</v>
       </c>
       <c r="O7">
-        <v>1.000060736152431</v>
+        <v>0.8754976904612276</v>
       </c>
       <c r="P7">
-        <v>1.000010982066265</v>
+        <v>0.9584221520288194</v>
       </c>
       <c r="Q7">
-        <v>1.000010982066265</v>
+        <v>0.9584221520288194</v>
       </c>
       <c r="R7">
-        <v>0.9999796780370243</v>
+        <v>0.9945294585215896</v>
       </c>
       <c r="S7">
-        <v>0.9999796780370243</v>
+        <v>0.9945294585215896</v>
       </c>
       <c r="T7">
-        <v>1.000020457435875</v>
+        <v>0.9890171957312425</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000052993135931</v>
+        <v>1.052943902210302</v>
       </c>
       <c r="D8">
-        <v>1.000110303158779</v>
+        <v>0.720519821052607</v>
       </c>
       <c r="E8">
-        <v>0.9998444458271261</v>
+        <v>1.102395021679571</v>
       </c>
       <c r="F8">
-        <v>1.000110303158779</v>
+        <v>0.720519821052607</v>
       </c>
       <c r="G8">
-        <v>0.9998444458271261</v>
+        <v>1.102395021679571</v>
       </c>
       <c r="H8">
-        <v>1.000228363766083</v>
+        <v>1.136654632538749</v>
       </c>
       <c r="I8">
-        <v>0.9999854608560841</v>
+        <v>0.8546696816976938</v>
       </c>
       <c r="J8">
-        <v>0.9999921923732511</v>
+        <v>1.067361123647926</v>
       </c>
       <c r="K8">
-        <v>0.9998444458271261</v>
+        <v>1.102395021679571</v>
       </c>
       <c r="L8">
-        <v>1.000052993135931</v>
+        <v>1.052943902210302</v>
       </c>
       <c r="M8">
-        <v>1.000081648147355</v>
+        <v>0.8867318616314546</v>
       </c>
       <c r="N8">
-        <v>1.000081648147355</v>
+        <v>0.8867318616314546</v>
       </c>
       <c r="O8">
-        <v>1.000049585716931</v>
+        <v>0.876044468320201</v>
       </c>
       <c r="P8">
-        <v>1.000002580707279</v>
+        <v>0.9586195816474934</v>
       </c>
       <c r="Q8">
-        <v>1.000002580707279</v>
+        <v>0.9586195816474934</v>
       </c>
       <c r="R8">
-        <v>0.9999630469872407</v>
+        <v>0.9945634416555127</v>
       </c>
       <c r="S8">
-        <v>0.9999630469872407</v>
+        <v>0.9945634416555127</v>
       </c>
       <c r="T8">
-        <v>1.000035626519542</v>
+        <v>0.9890906971378081</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000026271340202</v>
+        <v>1.052870296369568</v>
       </c>
       <c r="D9">
-        <v>0.9999875371025266</v>
+        <v>0.7220290700567609</v>
       </c>
       <c r="E9">
-        <v>0.9999911190804029</v>
+        <v>1.101479246975474</v>
       </c>
       <c r="F9">
-        <v>0.9999875371025266</v>
+        <v>0.7220290700567609</v>
       </c>
       <c r="G9">
-        <v>0.9999911190804029</v>
+        <v>1.101479246975474</v>
       </c>
       <c r="H9">
-        <v>1.000159954996006</v>
+        <v>1.136639444227917</v>
       </c>
       <c r="I9">
-        <v>0.9999379085173336</v>
+        <v>0.8552923837343376</v>
       </c>
       <c r="J9">
-        <v>1.000016023257413</v>
+        <v>1.067041987658184</v>
       </c>
       <c r="K9">
-        <v>0.9999911190804029</v>
+        <v>1.101479246975474</v>
       </c>
       <c r="L9">
-        <v>1.000026271340202</v>
+        <v>1.052870296369568</v>
       </c>
       <c r="M9">
-        <v>1.000006904221364</v>
+        <v>0.8874496832131643</v>
       </c>
       <c r="N9">
-        <v>1.000006904221364</v>
+        <v>0.8874496832131643</v>
       </c>
       <c r="O9">
-        <v>0.9999839056533539</v>
+        <v>0.8767305833868887</v>
       </c>
       <c r="P9">
-        <v>1.000001642507711</v>
+        <v>0.9587928711339343</v>
       </c>
       <c r="Q9">
-        <v>1.000001642507711</v>
+        <v>0.9587928711339343</v>
       </c>
       <c r="R9">
-        <v>0.9999990116508836</v>
+        <v>0.9944644650943193</v>
       </c>
       <c r="S9">
-        <v>0.9999990116508836</v>
+        <v>0.9944644650943193</v>
       </c>
       <c r="T9">
-        <v>1.000019802382314</v>
+        <v>0.9892254048370402</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000118558054863</v>
+        <v>1.052251459594201</v>
       </c>
       <c r="D10">
-        <v>1.000172274348856</v>
+        <v>0.7227747962627962</v>
       </c>
       <c r="E10">
-        <v>0.9997224044698119</v>
+        <v>1.102236538947582</v>
       </c>
       <c r="F10">
-        <v>1.000172274348856</v>
+        <v>0.7227747962627962</v>
       </c>
       <c r="G10">
-        <v>0.9997224044698119</v>
+        <v>1.102236538947582</v>
       </c>
       <c r="H10">
-        <v>1.000549908324009</v>
+        <v>1.135205683857762</v>
       </c>
       <c r="I10">
-        <v>0.9999135258472357</v>
+        <v>0.8557550638117069</v>
       </c>
       <c r="J10">
-        <v>1.000003061137533</v>
+        <v>1.066824354856721</v>
       </c>
       <c r="K10">
-        <v>0.9997224044698119</v>
+        <v>1.102236538947582</v>
       </c>
       <c r="L10">
-        <v>1.000118558054863</v>
+        <v>1.052251459594201</v>
       </c>
       <c r="M10">
-        <v>1.000145416201859</v>
+        <v>0.8875131279284985</v>
       </c>
       <c r="N10">
-        <v>1.000145416201859</v>
+        <v>0.8875131279284985</v>
       </c>
       <c r="O10">
-        <v>1.000068119416985</v>
+        <v>0.8769271065562346</v>
       </c>
       <c r="P10">
-        <v>1.000004412291177</v>
+        <v>0.959087598268193</v>
       </c>
       <c r="Q10">
-        <v>1.000004412291177</v>
+        <v>0.959087598268193</v>
       </c>
       <c r="R10">
-        <v>0.9999339103358356</v>
+        <v>0.9948748334380403</v>
       </c>
       <c r="S10">
-        <v>0.9999339103358356</v>
+        <v>0.9948748334380403</v>
       </c>
       <c r="T10">
-        <v>1.000079955363718</v>
+        <v>0.9891746495551281</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000064140078753</v>
+        <v>0.9991076428134593</v>
       </c>
       <c r="D11">
-        <v>0.9997525131979637</v>
+        <v>0.9994579654158591</v>
       </c>
       <c r="E11">
-        <v>1.000178916355525</v>
+        <v>1.002023895402431</v>
       </c>
       <c r="F11">
-        <v>0.9997525131979637</v>
+        <v>0.9994579654158591</v>
       </c>
       <c r="G11">
-        <v>1.000178916355525</v>
+        <v>1.002023895402431</v>
       </c>
       <c r="H11">
-        <v>1.000493627203507</v>
+        <v>0.9971796609408724</v>
       </c>
       <c r="I11">
-        <v>0.9996970889871318</v>
+        <v>1.000314351115138</v>
       </c>
       <c r="J11">
-        <v>1.000097601166367</v>
+        <v>0.9999578623322459</v>
       </c>
       <c r="K11">
-        <v>1.000178916355525</v>
+        <v>1.002023895402431</v>
       </c>
       <c r="L11">
-        <v>1.000064140078753</v>
+        <v>0.9991076428134593</v>
       </c>
       <c r="M11">
-        <v>0.9999083266383583</v>
+        <v>0.9992828041146592</v>
       </c>
       <c r="N11">
-        <v>0.9999083266383583</v>
+        <v>0.9992828041146592</v>
       </c>
       <c r="O11">
-        <v>0.9998379140879495</v>
+        <v>0.9996266531148188</v>
       </c>
       <c r="P11">
-        <v>0.9999985232107473</v>
+        <v>1.000196501210583</v>
       </c>
       <c r="Q11">
-        <v>0.9999985232107473</v>
+        <v>1.000196501210583</v>
       </c>
       <c r="R11">
-        <v>1.000043621496942</v>
+        <v>1.000653349758545</v>
       </c>
       <c r="S11">
-        <v>1.000043621496942</v>
+        <v>1.000653349758545</v>
       </c>
       <c r="T11">
-        <v>1.000047314498208</v>
+        <v>0.9996735630033342</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9777317828050288</v>
+        <v>0.9998279477752282</v>
       </c>
       <c r="D12">
-        <v>0.9992466283871493</v>
+        <v>0.9988773770350687</v>
       </c>
       <c r="E12">
-        <v>1.038835074496009</v>
+        <v>1.00111675695616</v>
       </c>
       <c r="F12">
-        <v>0.9992466283871493</v>
+        <v>0.9988773770350687</v>
       </c>
       <c r="G12">
-        <v>1.038835074496009</v>
+        <v>1.00111675695616</v>
       </c>
       <c r="H12">
-        <v>0.9239866028123825</v>
+        <v>0.9993555800955406</v>
       </c>
       <c r="I12">
-        <v>1.016547396473286</v>
+        <v>0.9996470550619703</v>
       </c>
       <c r="J12">
-        <v>0.9955461548607842</v>
+        <v>1.000203693727987</v>
       </c>
       <c r="K12">
-        <v>1.038835074496009</v>
+        <v>1.00111675695616</v>
       </c>
       <c r="L12">
-        <v>0.9777317828050288</v>
+        <v>0.9998279477752282</v>
       </c>
       <c r="M12">
-        <v>0.988489205596089</v>
+        <v>0.9993526624051485</v>
       </c>
       <c r="N12">
-        <v>0.988489205596089</v>
+        <v>0.9993526624051485</v>
       </c>
       <c r="O12">
-        <v>0.9978419358884878</v>
+        <v>0.9994507932907558</v>
       </c>
       <c r="P12">
-        <v>1.005271161896062</v>
+        <v>0.9999406939221526</v>
       </c>
       <c r="Q12">
-        <v>1.005271161896062</v>
+        <v>0.9999406939221523</v>
       </c>
       <c r="R12">
-        <v>1.013662140046049</v>
+        <v>1.000234709680654</v>
       </c>
       <c r="S12">
-        <v>1.013662140046049</v>
+        <v>1.000234709680654</v>
       </c>
       <c r="T12">
-        <v>0.9919822733057732</v>
+        <v>0.9998380684419925</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.002834898811944</v>
+        <v>0.9994615782216338</v>
       </c>
       <c r="D13">
-        <v>1.025225437342336</v>
+        <v>0.9955677921342576</v>
       </c>
       <c r="E13">
-        <v>0.9794400280826275</v>
+        <v>1.004153574254832</v>
       </c>
       <c r="F13">
-        <v>1.025225437342336</v>
+        <v>0.9955677921342576</v>
       </c>
       <c r="G13">
-        <v>0.9794400280826275</v>
+        <v>1.004153574254832</v>
       </c>
       <c r="H13">
-        <v>1.018092958882776</v>
+        <v>0.9978890237272507</v>
       </c>
       <c r="I13">
-        <v>1.004989063806324</v>
+        <v>0.998520788856633</v>
       </c>
       <c r="J13">
-        <v>0.9960142378716773</v>
+        <v>1.000829506583287</v>
       </c>
       <c r="K13">
-        <v>0.9794400280826275</v>
+        <v>1.004153574254832</v>
       </c>
       <c r="L13">
-        <v>1.002834898811944</v>
+        <v>0.9994615782216338</v>
       </c>
       <c r="M13">
-        <v>1.01403016807714</v>
+        <v>0.9975146851779457</v>
       </c>
       <c r="N13">
-        <v>1.01403016807714</v>
+        <v>0.9975146851779457</v>
       </c>
       <c r="O13">
-        <v>1.011016466653535</v>
+        <v>0.9978500530708415</v>
       </c>
       <c r="P13">
-        <v>1.002500121412303</v>
+        <v>0.9997276482035745</v>
       </c>
       <c r="Q13">
-        <v>1.002500121412303</v>
+        <v>0.9997276482035745</v>
       </c>
       <c r="R13">
-        <v>0.996735098079884</v>
+        <v>1.000834129716389</v>
       </c>
       <c r="S13">
-        <v>0.996735098079884</v>
+        <v>1.000834129716389</v>
       </c>
       <c r="T13">
-        <v>1.004432770799615</v>
+        <v>0.9994037106296491</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9910547260780442</v>
+        <v>0.9974676520785678</v>
       </c>
       <c r="D14">
-        <v>1.111091644176128</v>
+        <v>1.001921018504539</v>
       </c>
       <c r="E14">
-        <v>0.9406665565917691</v>
+        <v>1.003275527563341</v>
       </c>
       <c r="F14">
-        <v>1.111091644176128</v>
+        <v>1.001921018504539</v>
       </c>
       <c r="G14">
-        <v>0.9406665565917691</v>
+        <v>1.003275527563341</v>
       </c>
       <c r="H14">
-        <v>0.9922189759790226</v>
+        <v>0.9923447034188188</v>
       </c>
       <c r="I14">
-        <v>1.045755632239784</v>
+        <v>1.002295253187655</v>
       </c>
       <c r="J14">
-        <v>0.9763642994547048</v>
+        <v>0.9991609094433831</v>
       </c>
       <c r="K14">
-        <v>0.9406665565917691</v>
+        <v>1.003275527563341</v>
       </c>
       <c r="L14">
-        <v>0.9910547260780442</v>
+        <v>0.9974676520785678</v>
       </c>
       <c r="M14">
-        <v>1.051073185127086</v>
+        <v>0.9996943352915533</v>
       </c>
       <c r="N14">
-        <v>1.051073185127086</v>
+        <v>0.9996943352915533</v>
       </c>
       <c r="O14">
-        <v>1.049300667497985</v>
+        <v>1.000561307923587</v>
       </c>
       <c r="P14">
-        <v>1.014270975615314</v>
+        <v>1.000888066048816</v>
       </c>
       <c r="Q14">
-        <v>1.014270975615314</v>
+        <v>1.000888066048816</v>
       </c>
       <c r="R14">
-        <v>0.9958698708594276</v>
+        <v>1.001484931427447</v>
       </c>
       <c r="S14">
-        <v>0.9958698708594276</v>
+        <v>1.001484931427447</v>
       </c>
       <c r="T14">
-        <v>1.009525305753242</v>
+        <v>0.9994108440327173</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.991220062347043</v>
+        <v>0.9990486977982802</v>
       </c>
       <c r="D15">
-        <v>1.006778233622883</v>
+        <v>1.000648443431626</v>
       </c>
       <c r="E15">
-        <v>1.008159857519185</v>
+        <v>1.001279794880928</v>
       </c>
       <c r="F15">
-        <v>1.006778233622883</v>
+        <v>1.000648443431626</v>
       </c>
       <c r="G15">
-        <v>1.008159857519185</v>
+        <v>1.001279794880928</v>
       </c>
       <c r="H15">
-        <v>0.9655863454539725</v>
+        <v>0.9971113066543021</v>
       </c>
       <c r="I15">
-        <v>1.012166626288525</v>
+        <v>1.000836006553673</v>
       </c>
       <c r="J15">
-        <v>0.9961587785934316</v>
+        <v>0.9996991632503726</v>
       </c>
       <c r="K15">
-        <v>1.008159857519185</v>
+        <v>1.001279794880928</v>
       </c>
       <c r="L15">
-        <v>0.991220062347043</v>
+        <v>0.9990486977982802</v>
       </c>
       <c r="M15">
-        <v>0.9989991479849631</v>
+        <v>0.9998485706149529</v>
       </c>
       <c r="N15">
-        <v>0.9989991479849631</v>
+        <v>0.9998485706149529</v>
       </c>
       <c r="O15">
-        <v>1.003388307419484</v>
+        <v>1.000177715927859</v>
       </c>
       <c r="P15">
-        <v>1.002052717829704</v>
+        <v>1.000325645370278</v>
       </c>
       <c r="Q15">
-        <v>1.002052717829704</v>
+        <v>1.000325645370278</v>
       </c>
       <c r="R15">
-        <v>1.003579502752074</v>
+        <v>1.000564182747941</v>
       </c>
       <c r="S15">
-        <v>1.003579502752074</v>
+        <v>1.000564182747941</v>
       </c>
       <c r="T15">
-        <v>0.9966783173041733</v>
+        <v>0.9997705687615303</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9828372490931179</v>
+        <v>0.9981443521734407</v>
       </c>
       <c r="D16">
-        <v>1.015183647087739</v>
+        <v>1.001221750004034</v>
       </c>
       <c r="E16">
-        <v>1.020659016192715</v>
+        <v>1.002529017172163</v>
       </c>
       <c r="F16">
-        <v>1.015183647087739</v>
+        <v>1.001221750004034</v>
       </c>
       <c r="G16">
-        <v>1.020659016192715</v>
+        <v>1.002529017172163</v>
       </c>
       <c r="H16">
-        <v>0.9483297319292695</v>
+        <v>0.9943628843492789</v>
       </c>
       <c r="I16">
-        <v>1.01643235654309</v>
+        <v>1.001611414780199</v>
       </c>
       <c r="J16">
-        <v>0.993863999074262</v>
+        <v>0.9994226793544693</v>
       </c>
       <c r="K16">
-        <v>1.020659016192715</v>
+        <v>1.002529017172163</v>
       </c>
       <c r="L16">
-        <v>0.9828372490931179</v>
+        <v>0.9981443521734407</v>
       </c>
       <c r="M16">
-        <v>0.9990104480904284</v>
+        <v>0.9996830510887376</v>
       </c>
       <c r="N16">
-        <v>0.9990104480904284</v>
+        <v>0.9996830510887376</v>
       </c>
       <c r="O16">
-        <v>1.004817750907982</v>
+        <v>1.000325838985891</v>
       </c>
       <c r="P16">
-        <v>1.006226637457857</v>
+        <v>1.000631706449879</v>
       </c>
       <c r="Q16">
-        <v>1.006226637457857</v>
+        <v>1.000631706449879</v>
       </c>
       <c r="R16">
-        <v>1.009834732141572</v>
+        <v>1.00110603413045</v>
       </c>
       <c r="S16">
-        <v>1.009834732141572</v>
+        <v>1.00110603413045</v>
       </c>
       <c r="T16">
-        <v>0.9962176666533655</v>
+        <v>0.9995486829722643</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9887121509135852</v>
+        <v>0.9965797218154733</v>
       </c>
       <c r="D17">
-        <v>1.017578116038586</v>
+        <v>1.002600192432707</v>
       </c>
       <c r="E17">
-        <v>1.00833701203289</v>
+        <v>1.004419200224061</v>
       </c>
       <c r="F17">
-        <v>1.017578116038586</v>
+        <v>1.002600192432707</v>
       </c>
       <c r="G17">
-        <v>1.00833701203289</v>
+        <v>1.004419200224061</v>
       </c>
       <c r="H17">
-        <v>0.9671802028177737</v>
+        <v>0.9896618534587671</v>
       </c>
       <c r="I17">
-        <v>1.013670102450899</v>
+        <v>1.003102762113556</v>
       </c>
       <c r="J17">
-        <v>0.9944336823508023</v>
+        <v>0.9988652823243032</v>
       </c>
       <c r="K17">
-        <v>1.00833701203289</v>
+        <v>1.004419200224061</v>
       </c>
       <c r="L17">
-        <v>0.9887121509135852</v>
+        <v>0.9965797218154733</v>
       </c>
       <c r="M17">
-        <v>1.003145133476085</v>
+        <v>0.9995899571240904</v>
       </c>
       <c r="N17">
-        <v>1.003145133476085</v>
+        <v>0.9995899571240904</v>
       </c>
       <c r="O17">
-        <v>1.00665345646769</v>
+        <v>1.000760892120579</v>
       </c>
       <c r="P17">
-        <v>1.004875759661687</v>
+        <v>1.001199704824081</v>
       </c>
       <c r="Q17">
-        <v>1.004875759661687</v>
+        <v>1.001199704824081</v>
       </c>
       <c r="R17">
-        <v>1.005741072754488</v>
+        <v>1.002004578674076</v>
       </c>
       <c r="S17">
-        <v>1.005741072754488</v>
+        <v>1.002004578674076</v>
       </c>
       <c r="T17">
-        <v>0.9983185444340895</v>
+        <v>0.9992048353948114</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000396326176536</v>
+        <v>0.9950505837319241</v>
       </c>
       <c r="D18">
-        <v>1.021842908365495</v>
+        <v>1.003919130473218</v>
       </c>
       <c r="E18">
-        <v>0.9841868695181688</v>
+        <v>1.006272617487314</v>
       </c>
       <c r="F18">
-        <v>1.021842908365495</v>
+        <v>1.003919130473218</v>
       </c>
       <c r="G18">
-        <v>0.9841868695181688</v>
+        <v>1.006272617487314</v>
       </c>
       <c r="H18">
-        <v>1.004626943981428</v>
+        <v>0.9850569528801256</v>
       </c>
       <c r="I18">
-        <v>1.007972169765791</v>
+        <v>1.004561084576708</v>
       </c>
       <c r="J18">
-        <v>0.9956705380968026</v>
+        <v>0.9983223107531303</v>
       </c>
       <c r="K18">
-        <v>0.9841868695181688</v>
+        <v>1.006272617487314</v>
       </c>
       <c r="L18">
-        <v>1.000396326176536</v>
+        <v>0.9950505837319241</v>
       </c>
       <c r="M18">
-        <v>1.011119617271016</v>
+        <v>0.9994848571025711</v>
       </c>
       <c r="N18">
-        <v>1.011119617271016</v>
+        <v>0.9994848571025711</v>
       </c>
       <c r="O18">
-        <v>1.010070468102607</v>
+        <v>1.001176932927283</v>
       </c>
       <c r="P18">
-        <v>1.002142034686733</v>
+        <v>1.001747443897485</v>
       </c>
       <c r="Q18">
-        <v>1.002142034686733</v>
+        <v>1.001747443897485</v>
       </c>
       <c r="R18">
-        <v>0.9976532433945923</v>
+        <v>1.002878737294942</v>
       </c>
       <c r="S18">
-        <v>0.9976532433945923</v>
+        <v>1.002878737294942</v>
       </c>
       <c r="T18">
-        <v>1.002449292650704</v>
+        <v>0.9988637799837367</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.002091314702146</v>
+        <v>1.000014828218694</v>
       </c>
       <c r="D19">
-        <v>1.026254371536923</v>
+        <v>1.000132352030802</v>
       </c>
       <c r="E19">
-        <v>0.9781262717842313</v>
+        <v>0.9998857659493006</v>
       </c>
       <c r="F19">
-        <v>1.026254371536923</v>
+        <v>1.000132352030802</v>
       </c>
       <c r="G19">
-        <v>0.9781262717842313</v>
+        <v>0.9998857659493006</v>
       </c>
       <c r="H19">
-        <v>1.010823517915259</v>
+        <v>1.000077569405606</v>
       </c>
       <c r="I19">
-        <v>1.008483957343922</v>
+        <v>1.000035028207797</v>
       </c>
       <c r="J19">
-        <v>0.9951044234436484</v>
+        <v>0.9999772008030506</v>
       </c>
       <c r="K19">
-        <v>0.9781262717842313</v>
+        <v>0.9998857659493006</v>
       </c>
       <c r="L19">
-        <v>1.002091314702146</v>
+        <v>1.000014828218694</v>
       </c>
       <c r="M19">
-        <v>1.014172843119534</v>
+        <v>1.000073590124748</v>
       </c>
       <c r="N19">
-        <v>1.014172843119534</v>
+        <v>1.000073590124748</v>
       </c>
       <c r="O19">
-        <v>1.012276547860997</v>
+        <v>1.000060736152431</v>
       </c>
       <c r="P19">
-        <v>1.0021573193411</v>
+        <v>1.000010982066265</v>
       </c>
       <c r="Q19">
-        <v>1.0021573193411</v>
+        <v>1.000010982066265</v>
       </c>
       <c r="R19">
-        <v>0.9961495574518828</v>
+        <v>0.9999796780370243</v>
       </c>
       <c r="S19">
-        <v>0.9961495574518828</v>
+        <v>0.9999796780370243</v>
       </c>
       <c r="T19">
-        <v>1.003480642787688</v>
+        <v>1.000020457435875</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000184196066067</v>
+        <v>1.000052993135931</v>
       </c>
       <c r="D20">
-        <v>1.000290060859973</v>
+        <v>1.000110303158779</v>
       </c>
       <c r="E20">
-        <v>0.9994428362001637</v>
+        <v>0.9998444458271261</v>
       </c>
       <c r="F20">
-        <v>1.000290060859973</v>
+        <v>1.000110303158779</v>
       </c>
       <c r="G20">
-        <v>0.9994428362001637</v>
+        <v>0.9998444458271261</v>
       </c>
       <c r="H20">
-        <v>1.000562326964654</v>
+        <v>1.000228363766083</v>
       </c>
       <c r="I20">
-        <v>1.000025363012597</v>
+        <v>0.9999854608560841</v>
       </c>
       <c r="J20">
-        <v>0.9999680562497377</v>
+        <v>0.9999921923732511</v>
       </c>
       <c r="K20">
-        <v>0.9994428362001637</v>
+        <v>0.9998444458271261</v>
       </c>
       <c r="L20">
-        <v>1.000184196066067</v>
+        <v>1.000052993135931</v>
       </c>
       <c r="M20">
-        <v>1.00023712846302</v>
+        <v>1.000081648147355</v>
       </c>
       <c r="N20">
-        <v>1.00023712846302</v>
+        <v>1.000081648147355</v>
       </c>
       <c r="O20">
-        <v>1.000166539979546</v>
+        <v>1.000049585716931</v>
       </c>
       <c r="P20">
-        <v>0.9999723643754012</v>
+        <v>1.000002580707279</v>
       </c>
       <c r="Q20">
-        <v>0.9999723643754012</v>
+        <v>1.000002580707279</v>
       </c>
       <c r="R20">
-        <v>0.9998399823315918</v>
+        <v>0.9999630469872407</v>
       </c>
       <c r="S20">
-        <v>0.9998399823315918</v>
+        <v>0.9999630469872407</v>
       </c>
       <c r="T20">
-        <v>1.000078806558865</v>
+        <v>1.000035626519542</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.999767143287101</v>
+        <v>1.000026271340202</v>
       </c>
       <c r="D21">
-        <v>0.999865303292336</v>
+        <v>0.9999875371025266</v>
       </c>
       <c r="E21">
-        <v>1.000544297970817</v>
+        <v>0.9999911190804029</v>
       </c>
       <c r="F21">
-        <v>0.999865303292336</v>
+        <v>0.9999875371025266</v>
       </c>
       <c r="G21">
-        <v>1.000544297970817</v>
+        <v>0.9999911190804029</v>
       </c>
       <c r="H21">
-        <v>0.9993263002416379</v>
+        <v>1.000159954996006</v>
       </c>
       <c r="I21">
-        <v>1.000054748028101</v>
+        <v>0.9999379085173336</v>
       </c>
       <c r="J21">
-        <v>0.9999937189141367</v>
+        <v>1.000016023257413</v>
       </c>
       <c r="K21">
-        <v>1.000544297970817</v>
+        <v>0.9999911190804029</v>
       </c>
       <c r="L21">
-        <v>0.999767143287101</v>
+        <v>1.000026271340202</v>
       </c>
       <c r="M21">
-        <v>0.9998162232897185</v>
+        <v>1.000006904221364</v>
       </c>
       <c r="N21">
-        <v>0.9998162232897185</v>
+        <v>1.000006904221364</v>
       </c>
       <c r="O21">
-        <v>0.999895731535846</v>
+        <v>0.9999839056533539</v>
       </c>
       <c r="P21">
-        <v>1.000058914850085</v>
+        <v>1.000001642507711</v>
       </c>
       <c r="Q21">
-        <v>1.000058914850085</v>
+        <v>1.000001642507711</v>
       </c>
       <c r="R21">
-        <v>1.000180260630268</v>
+        <v>0.9999990116508836</v>
       </c>
       <c r="S21">
-        <v>1.000180260630268</v>
+        <v>0.9999990116508836</v>
       </c>
       <c r="T21">
-        <v>0.9999252519556884</v>
+        <v>1.000019802382314</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000174583975848</v>
+        <v>1.000118558054863</v>
       </c>
       <c r="D22">
-        <v>1.0008848762955</v>
+        <v>1.000172274348856</v>
       </c>
       <c r="E22">
-        <v>0.9990089156868734</v>
+        <v>0.9997224044698119</v>
       </c>
       <c r="F22">
-        <v>1.0008848762955</v>
+        <v>1.000172274348856</v>
       </c>
       <c r="G22">
-        <v>0.9990089156868734</v>
+        <v>0.9997224044698119</v>
       </c>
       <c r="H22">
-        <v>1.000508440372816</v>
+        <v>1.000549908324009</v>
       </c>
       <c r="I22">
-        <v>1.000312272963337</v>
+        <v>0.9999135258472357</v>
       </c>
       <c r="J22">
-        <v>0.9998347371863322</v>
+        <v>1.000003061137533</v>
       </c>
       <c r="K22">
-        <v>0.9990089156868734</v>
+        <v>0.9997224044698119</v>
       </c>
       <c r="L22">
-        <v>1.000174583975848</v>
+        <v>1.000118558054863</v>
       </c>
       <c r="M22">
-        <v>1.000529730135674</v>
+        <v>1.000145416201859</v>
       </c>
       <c r="N22">
-        <v>1.000529730135674</v>
+        <v>1.000145416201859</v>
       </c>
       <c r="O22">
-        <v>1.000457244411562</v>
+        <v>1.000068119416985</v>
       </c>
       <c r="P22">
-        <v>1.000022791986074</v>
+        <v>1.000004412291177</v>
       </c>
       <c r="Q22">
-        <v>1.000022791986074</v>
+        <v>1.000004412291177</v>
       </c>
       <c r="R22">
-        <v>0.9997693229112737</v>
+        <v>0.9999339103358356</v>
       </c>
       <c r="S22">
-        <v>0.9997693229112737</v>
+        <v>0.9999339103358356</v>
       </c>
       <c r="T22">
-        <v>1.000120637746784</v>
+        <v>1.000079955363718</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000064140078753</v>
+      </c>
+      <c r="D23">
+        <v>0.9997525131979637</v>
+      </c>
+      <c r="E23">
+        <v>1.000178916355525</v>
+      </c>
+      <c r="F23">
+        <v>0.9997525131979637</v>
+      </c>
+      <c r="G23">
+        <v>1.000178916355525</v>
+      </c>
+      <c r="H23">
+        <v>1.000493627203507</v>
+      </c>
+      <c r="I23">
+        <v>0.9996970889871318</v>
+      </c>
+      <c r="J23">
+        <v>1.000097601166367</v>
+      </c>
+      <c r="K23">
+        <v>1.000178916355525</v>
+      </c>
+      <c r="L23">
+        <v>1.000064140078753</v>
+      </c>
+      <c r="M23">
+        <v>0.9999083266383583</v>
+      </c>
+      <c r="N23">
+        <v>0.9999083266383583</v>
+      </c>
+      <c r="O23">
+        <v>0.9998379140879495</v>
+      </c>
+      <c r="P23">
+        <v>0.9999985232107473</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999985232107473</v>
+      </c>
+      <c r="R23">
+        <v>1.000043621496942</v>
+      </c>
+      <c r="S23">
+        <v>1.000043621496942</v>
+      </c>
+      <c r="T23">
+        <v>1.000047314498208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9777317828050288</v>
+      </c>
+      <c r="D24">
+        <v>0.9992466283871493</v>
+      </c>
+      <c r="E24">
+        <v>1.038835074496009</v>
+      </c>
+      <c r="F24">
+        <v>0.9992466283871493</v>
+      </c>
+      <c r="G24">
+        <v>1.038835074496009</v>
+      </c>
+      <c r="H24">
+        <v>0.9239866028123825</v>
+      </c>
+      <c r="I24">
+        <v>1.016547396473286</v>
+      </c>
+      <c r="J24">
+        <v>0.9955461548607842</v>
+      </c>
+      <c r="K24">
+        <v>1.038835074496009</v>
+      </c>
+      <c r="L24">
+        <v>0.9777317828050288</v>
+      </c>
+      <c r="M24">
+        <v>0.988489205596089</v>
+      </c>
+      <c r="N24">
+        <v>0.988489205596089</v>
+      </c>
+      <c r="O24">
+        <v>0.9978419358884878</v>
+      </c>
+      <c r="P24">
+        <v>1.005271161896062</v>
+      </c>
+      <c r="Q24">
+        <v>1.005271161896062</v>
+      </c>
+      <c r="R24">
+        <v>1.013662140046049</v>
+      </c>
+      <c r="S24">
+        <v>1.013662140046049</v>
+      </c>
+      <c r="T24">
+        <v>0.9919822733057732</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.002834898811944</v>
+      </c>
+      <c r="D25">
+        <v>1.025225437342336</v>
+      </c>
+      <c r="E25">
+        <v>0.9794400280826275</v>
+      </c>
+      <c r="F25">
+        <v>1.025225437342336</v>
+      </c>
+      <c r="G25">
+        <v>0.9794400280826275</v>
+      </c>
+      <c r="H25">
+        <v>1.018092958882776</v>
+      </c>
+      <c r="I25">
+        <v>1.004989063806324</v>
+      </c>
+      <c r="J25">
+        <v>0.9960142378716773</v>
+      </c>
+      <c r="K25">
+        <v>0.9794400280826275</v>
+      </c>
+      <c r="L25">
+        <v>1.002834898811944</v>
+      </c>
+      <c r="M25">
+        <v>1.01403016807714</v>
+      </c>
+      <c r="N25">
+        <v>1.01403016807714</v>
+      </c>
+      <c r="O25">
+        <v>1.011016466653535</v>
+      </c>
+      <c r="P25">
+        <v>1.002500121412303</v>
+      </c>
+      <c r="Q25">
+        <v>1.002500121412303</v>
+      </c>
+      <c r="R25">
+        <v>0.996735098079884</v>
+      </c>
+      <c r="S25">
+        <v>0.996735098079884</v>
+      </c>
+      <c r="T25">
+        <v>1.004432770799615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9910547260780442</v>
+      </c>
+      <c r="D26">
+        <v>1.111091644176128</v>
+      </c>
+      <c r="E26">
+        <v>0.9406665565917691</v>
+      </c>
+      <c r="F26">
+        <v>1.111091644176128</v>
+      </c>
+      <c r="G26">
+        <v>0.9406665565917691</v>
+      </c>
+      <c r="H26">
+        <v>0.9922189759790226</v>
+      </c>
+      <c r="I26">
+        <v>1.045755632239784</v>
+      </c>
+      <c r="J26">
+        <v>0.9763642994547048</v>
+      </c>
+      <c r="K26">
+        <v>0.9406665565917691</v>
+      </c>
+      <c r="L26">
+        <v>0.9910547260780442</v>
+      </c>
+      <c r="M26">
+        <v>1.051073185127086</v>
+      </c>
+      <c r="N26">
+        <v>1.051073185127086</v>
+      </c>
+      <c r="O26">
+        <v>1.049300667497985</v>
+      </c>
+      <c r="P26">
+        <v>1.014270975615314</v>
+      </c>
+      <c r="Q26">
+        <v>1.014270975615314</v>
+      </c>
+      <c r="R26">
+        <v>0.9958698708594276</v>
+      </c>
+      <c r="S26">
+        <v>0.9958698708594276</v>
+      </c>
+      <c r="T26">
+        <v>1.009525305753242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.991220062347043</v>
+      </c>
+      <c r="D27">
+        <v>1.006778233622883</v>
+      </c>
+      <c r="E27">
+        <v>1.008159857519185</v>
+      </c>
+      <c r="F27">
+        <v>1.006778233622883</v>
+      </c>
+      <c r="G27">
+        <v>1.008159857519185</v>
+      </c>
+      <c r="H27">
+        <v>0.9655863454539725</v>
+      </c>
+      <c r="I27">
+        <v>1.012166626288525</v>
+      </c>
+      <c r="J27">
+        <v>0.9961587785934316</v>
+      </c>
+      <c r="K27">
+        <v>1.008159857519185</v>
+      </c>
+      <c r="L27">
+        <v>0.991220062347043</v>
+      </c>
+      <c r="M27">
+        <v>0.9989991479849631</v>
+      </c>
+      <c r="N27">
+        <v>0.9989991479849631</v>
+      </c>
+      <c r="O27">
+        <v>1.003388307419484</v>
+      </c>
+      <c r="P27">
+        <v>1.002052717829704</v>
+      </c>
+      <c r="Q27">
+        <v>1.002052717829704</v>
+      </c>
+      <c r="R27">
+        <v>1.003579502752074</v>
+      </c>
+      <c r="S27">
+        <v>1.003579502752074</v>
+      </c>
+      <c r="T27">
+        <v>0.9966783173041733</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9828372490931179</v>
+      </c>
+      <c r="D28">
+        <v>1.015183647087739</v>
+      </c>
+      <c r="E28">
+        <v>1.020659016192715</v>
+      </c>
+      <c r="F28">
+        <v>1.015183647087739</v>
+      </c>
+      <c r="G28">
+        <v>1.020659016192715</v>
+      </c>
+      <c r="H28">
+        <v>0.9483297319292695</v>
+      </c>
+      <c r="I28">
+        <v>1.01643235654309</v>
+      </c>
+      <c r="J28">
+        <v>0.993863999074262</v>
+      </c>
+      <c r="K28">
+        <v>1.020659016192715</v>
+      </c>
+      <c r="L28">
+        <v>0.9828372490931179</v>
+      </c>
+      <c r="M28">
+        <v>0.9990104480904284</v>
+      </c>
+      <c r="N28">
+        <v>0.9990104480904284</v>
+      </c>
+      <c r="O28">
+        <v>1.004817750907982</v>
+      </c>
+      <c r="P28">
+        <v>1.006226637457857</v>
+      </c>
+      <c r="Q28">
+        <v>1.006226637457857</v>
+      </c>
+      <c r="R28">
+        <v>1.009834732141572</v>
+      </c>
+      <c r="S28">
+        <v>1.009834732141572</v>
+      </c>
+      <c r="T28">
+        <v>0.9962176666533655</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9887121509135852</v>
+      </c>
+      <c r="D29">
+        <v>1.017578116038586</v>
+      </c>
+      <c r="E29">
+        <v>1.00833701203289</v>
+      </c>
+      <c r="F29">
+        <v>1.017578116038586</v>
+      </c>
+      <c r="G29">
+        <v>1.00833701203289</v>
+      </c>
+      <c r="H29">
+        <v>0.9671802028177737</v>
+      </c>
+      <c r="I29">
+        <v>1.013670102450899</v>
+      </c>
+      <c r="J29">
+        <v>0.9944336823508023</v>
+      </c>
+      <c r="K29">
+        <v>1.00833701203289</v>
+      </c>
+      <c r="L29">
+        <v>0.9887121509135852</v>
+      </c>
+      <c r="M29">
+        <v>1.003145133476085</v>
+      </c>
+      <c r="N29">
+        <v>1.003145133476085</v>
+      </c>
+      <c r="O29">
+        <v>1.00665345646769</v>
+      </c>
+      <c r="P29">
+        <v>1.004875759661687</v>
+      </c>
+      <c r="Q29">
+        <v>1.004875759661687</v>
+      </c>
+      <c r="R29">
+        <v>1.005741072754488</v>
+      </c>
+      <c r="S29">
+        <v>1.005741072754488</v>
+      </c>
+      <c r="T29">
+        <v>0.9983185444340895</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.000396326176536</v>
+      </c>
+      <c r="D30">
+        <v>1.021842908365495</v>
+      </c>
+      <c r="E30">
+        <v>0.9841868695181688</v>
+      </c>
+      <c r="F30">
+        <v>1.021842908365495</v>
+      </c>
+      <c r="G30">
+        <v>0.9841868695181688</v>
+      </c>
+      <c r="H30">
+        <v>1.004626943981428</v>
+      </c>
+      <c r="I30">
+        <v>1.007972169765791</v>
+      </c>
+      <c r="J30">
+        <v>0.9956705380968026</v>
+      </c>
+      <c r="K30">
+        <v>0.9841868695181688</v>
+      </c>
+      <c r="L30">
+        <v>1.000396326176536</v>
+      </c>
+      <c r="M30">
+        <v>1.011119617271016</v>
+      </c>
+      <c r="N30">
+        <v>1.011119617271016</v>
+      </c>
+      <c r="O30">
+        <v>1.010070468102607</v>
+      </c>
+      <c r="P30">
+        <v>1.002142034686733</v>
+      </c>
+      <c r="Q30">
+        <v>1.002142034686733</v>
+      </c>
+      <c r="R30">
+        <v>0.9976532433945923</v>
+      </c>
+      <c r="S30">
+        <v>0.9976532433945923</v>
+      </c>
+      <c r="T30">
+        <v>1.002449292650704</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.002091314702146</v>
+      </c>
+      <c r="D31">
+        <v>1.026254371536923</v>
+      </c>
+      <c r="E31">
+        <v>0.9781262717842313</v>
+      </c>
+      <c r="F31">
+        <v>1.026254371536923</v>
+      </c>
+      <c r="G31">
+        <v>0.9781262717842313</v>
+      </c>
+      <c r="H31">
+        <v>1.010823517915259</v>
+      </c>
+      <c r="I31">
+        <v>1.008483957343922</v>
+      </c>
+      <c r="J31">
+        <v>0.9951044234436484</v>
+      </c>
+      <c r="K31">
+        <v>0.9781262717842313</v>
+      </c>
+      <c r="L31">
+        <v>1.002091314702146</v>
+      </c>
+      <c r="M31">
+        <v>1.014172843119534</v>
+      </c>
+      <c r="N31">
+        <v>1.014172843119534</v>
+      </c>
+      <c r="O31">
+        <v>1.012276547860997</v>
+      </c>
+      <c r="P31">
+        <v>1.0021573193411</v>
+      </c>
+      <c r="Q31">
+        <v>1.0021573193411</v>
+      </c>
+      <c r="R31">
+        <v>0.9961495574518828</v>
+      </c>
+      <c r="S31">
+        <v>0.9961495574518828</v>
+      </c>
+      <c r="T31">
+        <v>1.003480642787688</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9771771661643835</v>
+      </c>
+      <c r="D32">
+        <v>1.006078789452055</v>
+      </c>
+      <c r="E32">
+        <v>1.03755320849315</v>
+      </c>
+      <c r="F32">
+        <v>1.006078789452055</v>
+      </c>
+      <c r="G32">
+        <v>1.03755320849315</v>
+      </c>
+      <c r="H32">
+        <v>0.9299717589041092</v>
+      </c>
+      <c r="I32">
+        <v>1.016093403150685</v>
+      </c>
+      <c r="J32">
+        <v>0.9947795046575336</v>
+      </c>
+      <c r="K32">
+        <v>1.03755320849315</v>
+      </c>
+      <c r="L32">
+        <v>0.9771771661643835</v>
+      </c>
+      <c r="M32">
+        <v>0.9916279778082194</v>
+      </c>
+      <c r="N32">
+        <v>0.9916279778082194</v>
+      </c>
+      <c r="O32">
+        <v>0.9997831195890413</v>
+      </c>
+      <c r="P32">
+        <v>1.00693638803653</v>
+      </c>
+      <c r="Q32">
+        <v>1.00693638803653</v>
+      </c>
+      <c r="R32">
+        <v>1.014590593150685</v>
+      </c>
+      <c r="S32">
+        <v>1.014590593150685</v>
+      </c>
+      <c r="T32">
+        <v>0.993608971803653</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.057223345789474</v>
+      </c>
+      <c r="D33">
+        <v>0.920678644736842</v>
+      </c>
+      <c r="E33">
+        <v>0.957752965263158</v>
+      </c>
+      <c r="F33">
+        <v>0.920678644736842</v>
+      </c>
+      <c r="G33">
+        <v>0.957752965263158</v>
+      </c>
+      <c r="H33">
+        <v>1.186458268421053</v>
+      </c>
+      <c r="I33">
+        <v>0.9249941805263157</v>
+      </c>
+      <c r="J33">
+        <v>1.028223237894737</v>
+      </c>
+      <c r="K33">
+        <v>0.957752965263158</v>
+      </c>
+      <c r="L33">
+        <v>1.057223345789474</v>
+      </c>
+      <c r="M33">
+        <v>0.9889509952631578</v>
+      </c>
+      <c r="N33">
+        <v>0.9889509952631578</v>
+      </c>
+      <c r="O33">
+        <v>0.9676320570175437</v>
+      </c>
+      <c r="P33">
+        <v>0.9785516519298246</v>
+      </c>
+      <c r="Q33">
+        <v>0.9785516519298246</v>
+      </c>
+      <c r="R33">
+        <v>0.9733519802631579</v>
+      </c>
+      <c r="S33">
+        <v>0.9733519802631579</v>
+      </c>
+      <c r="T33">
+        <v>1.012555107105263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.048737092631579</v>
+      </c>
+      <c r="D34">
+        <v>0.7495736599999999</v>
+      </c>
+      <c r="E34">
+        <v>1.090005888421053</v>
+      </c>
+      <c r="F34">
+        <v>0.7495736599999999</v>
+      </c>
+      <c r="G34">
+        <v>1.090005888421053</v>
+      </c>
+      <c r="H34">
+        <v>1.128112141052632</v>
+      </c>
+      <c r="I34">
+        <v>0.8681440084210525</v>
+      </c>
+      <c r="J34">
+        <v>1.060768799473684</v>
+      </c>
+      <c r="K34">
+        <v>1.090005888421053</v>
+      </c>
+      <c r="L34">
+        <v>1.048737092631579</v>
+      </c>
+      <c r="M34">
+        <v>0.8991553763157893</v>
+      </c>
+      <c r="N34">
+        <v>0.8991553763157893</v>
+      </c>
+      <c r="O34">
+        <v>0.8888182536842105</v>
+      </c>
+      <c r="P34">
+        <v>0.9627722136842104</v>
+      </c>
+      <c r="Q34">
+        <v>0.9627722136842104</v>
+      </c>
+      <c r="R34">
+        <v>0.994580632368421</v>
+      </c>
+      <c r="S34">
+        <v>0.994580632368421</v>
+      </c>
+      <c r="T34">
+        <v>0.9908902649999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.008218985586237</v>
+      </c>
+      <c r="D35">
+        <v>1.10429227336268</v>
+      </c>
+      <c r="E35">
+        <v>0.9133477108892112</v>
+      </c>
+      <c r="F35">
+        <v>1.10429227336268</v>
+      </c>
+      <c r="G35">
+        <v>0.9133477108892112</v>
+      </c>
+      <c r="H35">
+        <v>1.042720045849107</v>
+      </c>
+      <c r="I35">
+        <v>1.033697931072391</v>
+      </c>
+      <c r="J35">
+        <v>0.9805597290106792</v>
+      </c>
+      <c r="K35">
+        <v>0.9133477108892112</v>
+      </c>
+      <c r="L35">
+        <v>1.008218985586237</v>
+      </c>
+      <c r="M35">
+        <v>1.056255629474459</v>
+      </c>
+      <c r="N35">
+        <v>1.056255629474459</v>
+      </c>
+      <c r="O35">
+        <v>1.048736396673769</v>
+      </c>
+      <c r="P35">
+        <v>1.008619656612709</v>
+      </c>
+      <c r="Q35">
+        <v>1.008619656612709</v>
+      </c>
+      <c r="R35">
+        <v>0.984801670181835</v>
+      </c>
+      <c r="S35">
+        <v>0.984801670181835</v>
+      </c>
+      <c r="T35">
+        <v>1.013806112628384</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000184196066067</v>
+      </c>
+      <c r="D36">
+        <v>1.000290060859973</v>
+      </c>
+      <c r="E36">
+        <v>0.9994428362001637</v>
+      </c>
+      <c r="F36">
+        <v>1.000290060859973</v>
+      </c>
+      <c r="G36">
+        <v>0.9994428362001637</v>
+      </c>
+      <c r="H36">
+        <v>1.000562326964654</v>
+      </c>
+      <c r="I36">
+        <v>1.000025363012597</v>
+      </c>
+      <c r="J36">
+        <v>0.9999680562497377</v>
+      </c>
+      <c r="K36">
+        <v>0.9994428362001637</v>
+      </c>
+      <c r="L36">
+        <v>1.000184196066067</v>
+      </c>
+      <c r="M36">
+        <v>1.00023712846302</v>
+      </c>
+      <c r="N36">
+        <v>1.00023712846302</v>
+      </c>
+      <c r="O36">
+        <v>1.000166539979546</v>
+      </c>
+      <c r="P36">
+        <v>0.9999723643754012</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999723643754012</v>
+      </c>
+      <c r="R36">
+        <v>0.9998399823315918</v>
+      </c>
+      <c r="S36">
+        <v>0.9998399823315918</v>
+      </c>
+      <c r="T36">
+        <v>1.000078806558865</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.999767143287101</v>
+      </c>
+      <c r="D37">
+        <v>0.999865303292336</v>
+      </c>
+      <c r="E37">
+        <v>1.000544297970817</v>
+      </c>
+      <c r="F37">
+        <v>0.999865303292336</v>
+      </c>
+      <c r="G37">
+        <v>1.000544297970817</v>
+      </c>
+      <c r="H37">
+        <v>0.9993263002416379</v>
+      </c>
+      <c r="I37">
+        <v>1.000054748028101</v>
+      </c>
+      <c r="J37">
+        <v>0.9999937189141367</v>
+      </c>
+      <c r="K37">
+        <v>1.000544297970817</v>
+      </c>
+      <c r="L37">
+        <v>0.999767143287101</v>
+      </c>
+      <c r="M37">
+        <v>0.9998162232897185</v>
+      </c>
+      <c r="N37">
+        <v>0.9998162232897185</v>
+      </c>
+      <c r="O37">
+        <v>0.999895731535846</v>
+      </c>
+      <c r="P37">
+        <v>1.000058914850085</v>
+      </c>
+      <c r="Q37">
+        <v>1.000058914850085</v>
+      </c>
+      <c r="R37">
+        <v>1.000180260630268</v>
+      </c>
+      <c r="S37">
+        <v>1.000180260630268</v>
+      </c>
+      <c r="T37">
+        <v>0.9999252519556884</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000174583975848</v>
+      </c>
+      <c r="D38">
+        <v>1.0008848762955</v>
+      </c>
+      <c r="E38">
+        <v>0.9990089156868734</v>
+      </c>
+      <c r="F38">
+        <v>1.0008848762955</v>
+      </c>
+      <c r="G38">
+        <v>0.9990089156868734</v>
+      </c>
+      <c r="H38">
+        <v>1.000508440372816</v>
+      </c>
+      <c r="I38">
+        <v>1.000312272963337</v>
+      </c>
+      <c r="J38">
+        <v>0.9998347371863322</v>
+      </c>
+      <c r="K38">
+        <v>0.9990089156868734</v>
+      </c>
+      <c r="L38">
+        <v>1.000174583975848</v>
+      </c>
+      <c r="M38">
+        <v>1.000529730135674</v>
+      </c>
+      <c r="N38">
+        <v>1.000529730135674</v>
+      </c>
+      <c r="O38">
+        <v>1.000457244411562</v>
+      </c>
+      <c r="P38">
+        <v>1.000022791986074</v>
+      </c>
+      <c r="Q38">
+        <v>1.000022791986074</v>
+      </c>
+      <c r="R38">
+        <v>0.9997693229112737</v>
+      </c>
+      <c r="S38">
+        <v>0.9997693229112737</v>
+      </c>
+      <c r="T38">
+        <v>1.000120637746784</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000960599344232</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.002701003964608</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9961149383695731</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.002701003964608</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9961149383695731</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.002670363709045</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.000801551454535</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9995478672095232</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9961149383695731</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000960599344232</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.00183080165442</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.00183080165442</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.001487718254458</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9999255138928044</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9999255138928044</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9989728700119965</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9989728700119965</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000466054008586</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.024850360989319</v>
+      </c>
+      <c r="D40">
+        <v>0.9178263944912997</v>
+      </c>
+      <c r="E40">
+        <v>1.013288224469687</v>
+      </c>
+      <c r="F40">
+        <v>0.9178263944912997</v>
+      </c>
+      <c r="G40">
+        <v>1.013288224469687</v>
+      </c>
+      <c r="H40">
+        <v>1.070073129354303</v>
+      </c>
+      <c r="I40">
+        <v>0.9512907329030474</v>
+      </c>
+      <c r="J40">
+        <v>1.021479474458476</v>
+      </c>
+      <c r="K40">
+        <v>1.013288224469687</v>
+      </c>
+      <c r="L40">
+        <v>1.024850360989319</v>
+      </c>
+      <c r="M40">
+        <v>0.9713383777403095</v>
+      </c>
+      <c r="N40">
+        <v>0.9713383777403095</v>
+      </c>
+      <c r="O40">
+        <v>0.9646558294612221</v>
+      </c>
+      <c r="P40">
+        <v>0.9853216599834352</v>
+      </c>
+      <c r="Q40">
+        <v>0.9853216599834352</v>
+      </c>
+      <c r="R40">
+        <v>0.992313301104998</v>
+      </c>
+      <c r="S40">
+        <v>0.992313301104998</v>
+      </c>
+      <c r="T40">
+        <v>0.9998013861110221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9954461850752196</v>
+      </c>
+      <c r="D41">
+        <v>1.004789087340033</v>
+      </c>
+      <c r="E41">
+        <v>1.004639165685974</v>
+      </c>
+      <c r="F41">
+        <v>1.004789087340033</v>
+      </c>
+      <c r="G41">
+        <v>1.004639165685974</v>
+      </c>
+      <c r="H41">
+        <v>0.9853798340873416</v>
+      </c>
+      <c r="I41">
+        <v>1.0051223549466</v>
+      </c>
+      <c r="J41">
+        <v>0.9981263538749415</v>
+      </c>
+      <c r="K41">
+        <v>1.004639165685974</v>
+      </c>
+      <c r="L41">
+        <v>0.9954461850752196</v>
+      </c>
+      <c r="M41">
+        <v>1.000117636207627</v>
+      </c>
+      <c r="N41">
+        <v>1.000117636207627</v>
+      </c>
+      <c r="O41">
+        <v>1.001785875787284</v>
+      </c>
+      <c r="P41">
+        <v>1.001624812700409</v>
+      </c>
+      <c r="Q41">
+        <v>1.001624812700409</v>
+      </c>
+      <c r="R41">
+        <v>1.0023784009468</v>
+      </c>
+      <c r="S41">
+        <v>1.0023784009468</v>
+      </c>
+      <c r="T41">
+        <v>0.998917163501685</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.003556694544246</v>
+      </c>
+      <c r="D42">
+        <v>0.9951056981131418</v>
+      </c>
+      <c r="E42">
+        <v>0.9972423414486915</v>
+      </c>
+      <c r="F42">
+        <v>0.9951056981131418</v>
+      </c>
+      <c r="G42">
+        <v>0.9972423414486915</v>
+      </c>
+      <c r="H42">
+        <v>1.011320336298968</v>
+      </c>
+      <c r="I42">
+        <v>0.9954954057127299</v>
+      </c>
+      <c r="J42">
+        <v>1.001715770262806</v>
+      </c>
+      <c r="K42">
+        <v>0.9972423414486915</v>
+      </c>
+      <c r="L42">
+        <v>1.003556694544246</v>
+      </c>
+      <c r="M42">
+        <v>0.9993311963286939</v>
+      </c>
+      <c r="N42">
+        <v>0.9993311963286939</v>
+      </c>
+      <c r="O42">
+        <v>0.998052599456706</v>
+      </c>
+      <c r="P42">
+        <v>0.9986349113686931</v>
+      </c>
+      <c r="Q42">
+        <v>0.9986349113686931</v>
+      </c>
+      <c r="R42">
+        <v>0.9982867688886927</v>
+      </c>
+      <c r="S42">
+        <v>0.9982867688886927</v>
+      </c>
+      <c r="T42">
+        <v>1.000739374396764</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW25.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,36 +85,36 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
@@ -89,9 +122,6 @@
   </si>
   <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.001279794880928</v>
+        <v>1.000052993135931</v>
       </c>
       <c r="D3">
-        <v>1.000648443431626</v>
+        <v>1.000110303158779</v>
       </c>
       <c r="E3">
-        <v>0.9990486977982802</v>
+        <v>0.9998444458271261</v>
       </c>
       <c r="F3">
-        <v>1.001279794880928</v>
+        <v>1.000110303158779</v>
       </c>
       <c r="G3">
-        <v>0.9971113066543021</v>
+        <v>0.9998444458271261</v>
       </c>
       <c r="H3">
-        <v>1.000836006553673</v>
+        <v>1.000228363766083</v>
       </c>
       <c r="I3">
-        <v>0.9996991632503726</v>
+        <v>0.9999854608560841</v>
       </c>
       <c r="J3">
-        <v>1.000648443431626</v>
+        <v>0.9999921923732511</v>
       </c>
       <c r="K3">
-        <v>1.001279794880928</v>
+        <v>0.9998444458271261</v>
       </c>
       <c r="L3">
-        <v>0.9990486977982802</v>
+        <v>1.000052993135931</v>
       </c>
       <c r="M3">
-        <v>0.9998485706149529</v>
+        <v>1.000081648147355</v>
       </c>
       <c r="N3">
-        <v>0.9998485706149529</v>
+        <v>1.000081648147355</v>
       </c>
       <c r="O3">
-        <v>1.000177715927859</v>
+        <v>1.000049585716931</v>
       </c>
       <c r="P3">
-        <v>1.000325645370278</v>
+        <v>1.000002580707279</v>
       </c>
       <c r="Q3">
-        <v>1.000325645370278</v>
+        <v>1.000002580707279</v>
       </c>
       <c r="R3">
-        <v>1.000564182747941</v>
+        <v>0.9999630469872407</v>
       </c>
       <c r="S3">
-        <v>1.000564182747941</v>
+        <v>0.9999630469872407</v>
       </c>
       <c r="T3">
-        <v>0.9997705687615303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+        <v>1.000035626519542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.002529017172163</v>
+        <v>1.024850360989319</v>
       </c>
       <c r="D4">
-        <v>1.001221750004034</v>
+        <v>0.9178263944912997</v>
       </c>
       <c r="E4">
-        <v>0.9981443521734407</v>
+        <v>1.013288224469687</v>
       </c>
       <c r="F4">
-        <v>1.002529017172163</v>
+        <v>0.9178263944912997</v>
       </c>
       <c r="G4">
-        <v>0.9943628843492789</v>
+        <v>1.013288224469687</v>
       </c>
       <c r="H4">
-        <v>1.001611414780199</v>
+        <v>1.070073129354303</v>
       </c>
       <c r="I4">
-        <v>0.9994226793544693</v>
+        <v>0.9512907329030474</v>
       </c>
       <c r="J4">
-        <v>1.001221750004034</v>
+        <v>1.021479474458476</v>
       </c>
       <c r="K4">
-        <v>1.002529017172163</v>
+        <v>1.013288224469687</v>
       </c>
       <c r="L4">
-        <v>0.9981443521734407</v>
+        <v>1.024850360989319</v>
       </c>
       <c r="M4">
-        <v>0.9996830510887376</v>
+        <v>0.9713383777403095</v>
       </c>
       <c r="N4">
-        <v>0.9996830510887376</v>
+        <v>0.9713383777403095</v>
       </c>
       <c r="O4">
-        <v>1.000325838985891</v>
+        <v>0.9646558294612221</v>
       </c>
       <c r="P4">
-        <v>1.000631706449879</v>
+        <v>0.9853216599834352</v>
       </c>
       <c r="Q4">
-        <v>1.000631706449879</v>
+        <v>0.9853216599834352</v>
       </c>
       <c r="R4">
-        <v>1.00110603413045</v>
+        <v>0.992313301104998</v>
       </c>
       <c r="S4">
-        <v>1.00110603413045</v>
+        <v>0.992313301104998</v>
       </c>
       <c r="T4">
-        <v>0.9995486829722643</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
+        <v>0.9998013861110221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.004419200224061</v>
+        <v>1.000969139610949</v>
       </c>
       <c r="D5">
-        <v>1.002600192432707</v>
+        <v>1.022786021498557</v>
       </c>
       <c r="E5">
-        <v>0.9965797218154733</v>
+        <v>0.9825539647622457</v>
       </c>
       <c r="F5">
-        <v>1.004419200224061</v>
+        <v>1.022786021498557</v>
       </c>
       <c r="G5">
-        <v>0.9896618534587671</v>
+        <v>0.9825539647622457</v>
       </c>
       <c r="H5">
-        <v>1.003102762113556</v>
+        <v>1.006710693472622</v>
       </c>
       <c r="I5">
-        <v>0.9988652823243032</v>
+        <v>1.007894239481267</v>
       </c>
       <c r="J5">
-        <v>1.002600192432707</v>
+        <v>0.9956002852089351</v>
       </c>
       <c r="K5">
-        <v>1.004419200224061</v>
+        <v>0.9825539647622457</v>
       </c>
       <c r="L5">
-        <v>0.9965797218154733</v>
+        <v>1.000969139610949</v>
       </c>
       <c r="M5">
-        <v>0.9995899571240904</v>
+        <v>1.011877580554753</v>
       </c>
       <c r="N5">
-        <v>0.9995899571240904</v>
+        <v>1.011877580554753</v>
       </c>
       <c r="O5">
-        <v>1.000760892120579</v>
+        <v>1.010549800196924</v>
       </c>
       <c r="P5">
-        <v>1.001199704824081</v>
+        <v>1.00210304195725</v>
       </c>
       <c r="Q5">
-        <v>1.001199704824081</v>
+        <v>1.00210304195725</v>
       </c>
       <c r="R5">
-        <v>1.002004578674076</v>
+        <v>0.9972157726584991</v>
       </c>
       <c r="S5">
-        <v>1.002004578674076</v>
+        <v>0.9972157726584991</v>
       </c>
       <c r="T5">
-        <v>0.9992048353948114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
+        <v>1.002752390672429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.006272617487314</v>
+        <v>1.008218985586237</v>
       </c>
       <c r="D6">
-        <v>1.003919130473218</v>
+        <v>1.10429227336268</v>
       </c>
       <c r="E6">
-        <v>0.9950505837319241</v>
+        <v>0.9133477108892112</v>
       </c>
       <c r="F6">
-        <v>1.006272617487314</v>
+        <v>1.10429227336268</v>
       </c>
       <c r="G6">
-        <v>0.9850569528801256</v>
+        <v>0.9133477108892112</v>
       </c>
       <c r="H6">
-        <v>1.004561084576708</v>
+        <v>1.042720045849107</v>
       </c>
       <c r="I6">
-        <v>0.9983223107531303</v>
+        <v>1.033697931072391</v>
       </c>
       <c r="J6">
-        <v>1.003919130473218</v>
+        <v>0.9805597290106792</v>
       </c>
       <c r="K6">
-        <v>1.006272617487314</v>
+        <v>0.9133477108892112</v>
       </c>
       <c r="L6">
-        <v>0.9950505837319241</v>
+        <v>1.008218985586237</v>
       </c>
       <c r="M6">
-        <v>0.9994848571025711</v>
+        <v>1.056255629474459</v>
       </c>
       <c r="N6">
-        <v>0.9994848571025711</v>
+        <v>1.056255629474459</v>
       </c>
       <c r="O6">
-        <v>1.001176932927283</v>
+        <v>1.048736396673769</v>
       </c>
       <c r="P6">
-        <v>1.001747443897485</v>
+        <v>1.008619656612709</v>
       </c>
       <c r="Q6">
-        <v>1.001747443897485</v>
+        <v>1.008619656612709</v>
       </c>
       <c r="R6">
-        <v>1.002878737294942</v>
+        <v>0.984801670181835</v>
       </c>
       <c r="S6">
-        <v>1.002878737294942</v>
+        <v>0.984801670181835</v>
       </c>
       <c r="T6">
-        <v>0.9988637799837367</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+        <v>1.013806112628384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9998857659493007</v>
+        <v>0.9991076428134593</v>
       </c>
       <c r="D7">
-        <v>1.000132352030803</v>
+        <v>0.9994579654158591</v>
       </c>
       <c r="E7">
-        <v>1.000014828218694</v>
+        <v>1.002023895402431</v>
       </c>
       <c r="F7">
-        <v>0.9998857659493007</v>
+        <v>0.9994579654158591</v>
       </c>
       <c r="G7">
-        <v>1.000077569405606</v>
+        <v>1.002023895402431</v>
       </c>
       <c r="H7">
-        <v>1.000035028207797</v>
+        <v>0.9971796609408724</v>
       </c>
       <c r="I7">
-        <v>0.9999772008030505</v>
+        <v>1.000314351115138</v>
       </c>
       <c r="J7">
-        <v>1.000132352030803</v>
+        <v>0.9999578623322459</v>
       </c>
       <c r="K7">
-        <v>0.9998857659493007</v>
+        <v>1.002023895402431</v>
       </c>
       <c r="L7">
-        <v>1.000014828218694</v>
+        <v>0.9991076428134593</v>
       </c>
       <c r="M7">
-        <v>1.000073590124748</v>
+        <v>0.9992828041146592</v>
       </c>
       <c r="N7">
-        <v>1.000073590124748</v>
+        <v>0.9992828041146592</v>
       </c>
       <c r="O7">
-        <v>1.000060736152431</v>
+        <v>0.9996266531148188</v>
       </c>
       <c r="P7">
-        <v>1.000010982066266</v>
+        <v>1.000196501210583</v>
       </c>
       <c r="Q7">
-        <v>1.000010982066266</v>
+        <v>1.000196501210583</v>
       </c>
       <c r="R7">
-        <v>0.9999796780370245</v>
+        <v>1.000653349758545</v>
       </c>
       <c r="S7">
-        <v>0.9999796780370245</v>
+        <v>1.000653349758545</v>
       </c>
       <c r="T7">
-        <v>1.000020457435875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>0.9996735630033342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998444458271259</v>
+        <v>0.999767143287101</v>
       </c>
       <c r="D8">
-        <v>1.00011030315878</v>
+        <v>0.999865303292336</v>
       </c>
       <c r="E8">
-        <v>1.000052993135931</v>
+        <v>1.000544297970817</v>
       </c>
       <c r="F8">
-        <v>0.9998444458271259</v>
+        <v>0.999865303292336</v>
       </c>
       <c r="G8">
-        <v>1.000228363766083</v>
+        <v>1.000544297970817</v>
       </c>
       <c r="H8">
-        <v>0.9999854608560841</v>
+        <v>0.9993263002416379</v>
       </c>
       <c r="I8">
-        <v>0.9999921923732513</v>
+        <v>1.000054748028101</v>
       </c>
       <c r="J8">
-        <v>1.00011030315878</v>
+        <v>0.9999937189141367</v>
       </c>
       <c r="K8">
-        <v>0.9998444458271259</v>
+        <v>1.000544297970817</v>
       </c>
       <c r="L8">
-        <v>1.000052993135931</v>
+        <v>0.999767143287101</v>
       </c>
       <c r="M8">
-        <v>1.000081648147356</v>
+        <v>0.9998162232897185</v>
       </c>
       <c r="N8">
-        <v>1.000081648147356</v>
+        <v>0.9998162232897185</v>
       </c>
       <c r="O8">
-        <v>1.000049585716932</v>
+        <v>0.999895731535846</v>
       </c>
       <c r="P8">
-        <v>1.000002580707279</v>
+        <v>1.000058914850085</v>
       </c>
       <c r="Q8">
-        <v>1.000002580707279</v>
+        <v>1.000058914850085</v>
       </c>
       <c r="R8">
-        <v>0.9999630469872407</v>
+        <v>1.000180260630268</v>
       </c>
       <c r="S8">
-        <v>0.9999630469872407</v>
+        <v>1.000180260630268</v>
       </c>
       <c r="T8">
-        <v>1.000035626519543</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>0.9999252519556884</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999911190804029</v>
+        <v>0.9981443521734407</v>
       </c>
       <c r="D9">
-        <v>0.9999875371025266</v>
+        <v>1.001221750004034</v>
       </c>
       <c r="E9">
-        <v>1.000026271340202</v>
+        <v>1.002529017172163</v>
       </c>
       <c r="F9">
-        <v>0.9999911190804029</v>
+        <v>1.001221750004034</v>
       </c>
       <c r="G9">
-        <v>1.000159954996006</v>
+        <v>1.002529017172163</v>
       </c>
       <c r="H9">
-        <v>0.9999379085173336</v>
+        <v>0.9943628843492789</v>
       </c>
       <c r="I9">
-        <v>1.000016023257413</v>
+        <v>1.001611414780199</v>
       </c>
       <c r="J9">
-        <v>0.9999875371025266</v>
+        <v>0.9994226793544693</v>
       </c>
       <c r="K9">
-        <v>0.9999911190804029</v>
+        <v>1.002529017172163</v>
       </c>
       <c r="L9">
-        <v>1.000026271340202</v>
+        <v>0.9981443521734407</v>
       </c>
       <c r="M9">
-        <v>1.000006904221364</v>
+        <v>0.9996830510887376</v>
       </c>
       <c r="N9">
-        <v>1.000006904221364</v>
+        <v>0.9996830510887376</v>
       </c>
       <c r="O9">
-        <v>0.9999839056533539</v>
+        <v>1.000325838985891</v>
       </c>
       <c r="P9">
-        <v>1.000001642507711</v>
+        <v>1.000631706449879</v>
       </c>
       <c r="Q9">
-        <v>1.000001642507711</v>
+        <v>1.000631706449879</v>
       </c>
       <c r="R9">
-        <v>0.9999990116508836</v>
+        <v>1.00110603413045</v>
       </c>
       <c r="S9">
-        <v>0.9999990116508836</v>
+        <v>1.00110603413045</v>
       </c>
       <c r="T9">
-        <v>1.000019802382314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <v>0.9995486829722643</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9997224044698119</v>
+        <v>1.008682043499835</v>
       </c>
       <c r="D10">
-        <v>1.000172274348856</v>
+        <v>1.106679737214463</v>
       </c>
       <c r="E10">
-        <v>1.000118558054863</v>
+        <v>0.9109092965549574</v>
       </c>
       <c r="F10">
-        <v>0.9997224044698119</v>
+        <v>1.106679737214463</v>
       </c>
       <c r="G10">
-        <v>1.000549908324009</v>
+        <v>0.9109092965549574</v>
       </c>
       <c r="H10">
-        <v>0.9999135258472357</v>
+        <v>1.044689420794415</v>
       </c>
       <c r="I10">
-        <v>1.000003061137533</v>
+        <v>1.034235253590688</v>
       </c>
       <c r="J10">
-        <v>1.000172274348856</v>
+        <v>0.9801768775243048</v>
       </c>
       <c r="K10">
-        <v>0.9997224044698119</v>
+        <v>0.9109092965549574</v>
       </c>
       <c r="L10">
-        <v>1.000118558054863</v>
+        <v>1.008682043499835</v>
       </c>
       <c r="M10">
-        <v>1.000145416201859</v>
+        <v>1.057680890357149</v>
       </c>
       <c r="N10">
-        <v>1.000145416201859</v>
+        <v>1.057680890357149</v>
       </c>
       <c r="O10">
-        <v>1.000068119416985</v>
+        <v>1.049865678101662</v>
       </c>
       <c r="P10">
-        <v>1.000004412291177</v>
+        <v>1.008757025756418</v>
       </c>
       <c r="Q10">
-        <v>1.000004412291177</v>
+        <v>1.008757025756418</v>
       </c>
       <c r="R10">
-        <v>0.9999339103358356</v>
+        <v>0.984295093456053</v>
       </c>
       <c r="S10">
-        <v>0.9999339103358356</v>
+        <v>0.984295093456053</v>
       </c>
       <c r="T10">
-        <v>1.000079955363718</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>1.014228771529777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000178916355525</v>
+        <v>1.016325543423336</v>
       </c>
       <c r="D11">
-        <v>0.9997525131979637</v>
+        <v>0.9328634298543418</v>
       </c>
       <c r="E11">
-        <v>1.000064140078753</v>
+        <v>1.017567983895317</v>
       </c>
       <c r="F11">
-        <v>1.000178916355525</v>
+        <v>0.9328634298543418</v>
       </c>
       <c r="G11">
-        <v>1.000493627203507</v>
+        <v>1.017567983895317</v>
       </c>
       <c r="H11">
-        <v>0.9996970889871318</v>
+        <v>1.04317358063493</v>
       </c>
       <c r="I11">
-        <v>1.000097601166367</v>
+        <v>0.9634303251158395</v>
       </c>
       <c r="J11">
-        <v>0.9997525131979637</v>
+        <v>1.01668776875428</v>
       </c>
       <c r="K11">
-        <v>1.000178916355525</v>
+        <v>1.017567983895317</v>
       </c>
       <c r="L11">
-        <v>1.000064140078753</v>
+        <v>1.016325543423336</v>
       </c>
       <c r="M11">
-        <v>0.9999083266383583</v>
+        <v>0.9745944866388387</v>
       </c>
       <c r="N11">
-        <v>0.9999083266383583</v>
+        <v>0.9745944866388387</v>
       </c>
       <c r="O11">
-        <v>0.9998379140879495</v>
+        <v>0.9708730994645056</v>
       </c>
       <c r="P11">
-        <v>0.9999985232107473</v>
+        <v>0.9889189857243315</v>
       </c>
       <c r="Q11">
-        <v>0.9999985232107473</v>
+        <v>0.9889189857243316</v>
       </c>
       <c r="R11">
-        <v>1.000043621496942</v>
+        <v>0.996081235267078</v>
       </c>
       <c r="S11">
-        <v>1.000043621496942</v>
+        <v>0.996081235267078</v>
       </c>
       <c r="T11">
-        <v>1.000047314498208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>0.9983414386130073</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.038835074496009</v>
+        <v>1.003349496052631</v>
       </c>
       <c r="D12">
-        <v>0.9992466283871493</v>
+        <v>1.029562525494736</v>
       </c>
       <c r="E12">
-        <v>0.9777317828050288</v>
+        <v>0.9736157815263144</v>
       </c>
       <c r="F12">
-        <v>1.038835074496009</v>
+        <v>1.029562525494736</v>
       </c>
       <c r="G12">
-        <v>0.9239866028123825</v>
+        <v>0.9736157815263144</v>
       </c>
       <c r="H12">
-        <v>1.016547396473286</v>
+        <v>1.015459376473685</v>
       </c>
       <c r="I12">
-        <v>0.9955461548607842</v>
+        <v>1.008860717431578</v>
       </c>
       <c r="J12">
-        <v>0.9992466283871493</v>
+        <v>0.9946807785789503</v>
       </c>
       <c r="K12">
-        <v>1.038835074496009</v>
+        <v>0.9736157815263144</v>
       </c>
       <c r="L12">
-        <v>0.9777317828050288</v>
+        <v>1.003349496052631</v>
       </c>
       <c r="M12">
-        <v>0.988489205596089</v>
+        <v>1.016456010773683</v>
       </c>
       <c r="N12">
-        <v>0.988489205596089</v>
+        <v>1.016456010773683</v>
       </c>
       <c r="O12">
-        <v>0.9978419358884878</v>
+        <v>1.013924246326315</v>
       </c>
       <c r="P12">
-        <v>1.005271161896062</v>
+        <v>1.002175934357894</v>
       </c>
       <c r="Q12">
-        <v>1.005271161896062</v>
+        <v>1.002175934357894</v>
       </c>
       <c r="R12">
-        <v>1.013662140046049</v>
+        <v>0.995035896149999</v>
       </c>
       <c r="S12">
-        <v>1.013662140046049</v>
+        <v>0.995035896149999</v>
       </c>
       <c r="T12">
-        <v>0.9919822733057732</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>1.004254779259649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9794400280826274</v>
+        <v>1.002084271483676</v>
       </c>
       <c r="D13">
-        <v>1.025225437342336</v>
+        <v>0.9878336081641282</v>
       </c>
       <c r="E13">
-        <v>1.002834898811944</v>
+        <v>1.00498051883583</v>
       </c>
       <c r="F13">
-        <v>0.9794400280826274</v>
+        <v>0.9878336081641282</v>
       </c>
       <c r="G13">
-        <v>1.018092958882776</v>
+        <v>1.00498051883583</v>
       </c>
       <c r="H13">
-        <v>1.004989063806324</v>
+        <v>1.005657089598067</v>
       </c>
       <c r="I13">
-        <v>0.9960142378716772</v>
+        <v>0.9936256978887292</v>
       </c>
       <c r="J13">
-        <v>1.025225437342336</v>
+        <v>1.002928661494357</v>
       </c>
       <c r="K13">
-        <v>0.9794400280826274</v>
+        <v>1.00498051883583</v>
       </c>
       <c r="L13">
-        <v>1.002834898811944</v>
+        <v>1.002084271483676</v>
       </c>
       <c r="M13">
-        <v>1.01403016807714</v>
+        <v>0.994958939823902</v>
       </c>
       <c r="N13">
-        <v>1.01403016807714</v>
+        <v>0.994958939823902</v>
       </c>
       <c r="O13">
-        <v>1.011016466653535</v>
+        <v>0.9945145258455111</v>
       </c>
       <c r="P13">
-        <v>1.002500121412303</v>
+        <v>0.9982994661612113</v>
       </c>
       <c r="Q13">
-        <v>1.002500121412303</v>
+        <v>0.9982994661612113</v>
       </c>
       <c r="R13">
-        <v>0.9967350980798837</v>
+        <v>0.9999697293298661</v>
       </c>
       <c r="S13">
-        <v>0.9967350980798837</v>
+        <v>0.9999697293298661</v>
       </c>
       <c r="T13">
-        <v>1.004432770799614</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>0.9995183079107979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9406665565917691</v>
+        <v>1.015927599999999</v>
       </c>
       <c r="D14">
-        <v>1.111091644176128</v>
+        <v>1.1861928</v>
       </c>
       <c r="E14">
-        <v>0.9910547260780442</v>
+        <v>0.8431308099999995</v>
       </c>
       <c r="F14">
-        <v>0.9406665565917691</v>
+        <v>1.1861928</v>
       </c>
       <c r="G14">
-        <v>0.9922189759790226</v>
+        <v>0.8431308099999995</v>
       </c>
       <c r="H14">
-        <v>1.045755632239784</v>
+        <v>1.0804637</v>
       </c>
       <c r="I14">
-        <v>0.9763642994547048</v>
+        <v>1.059239499999999</v>
       </c>
       <c r="J14">
-        <v>1.111091644176128</v>
+        <v>0.9655495399999992</v>
       </c>
       <c r="K14">
-        <v>0.9406665565917691</v>
+        <v>0.8431308099999995</v>
       </c>
       <c r="L14">
-        <v>0.9910547260780442</v>
+        <v>1.015927599999999</v>
       </c>
       <c r="M14">
-        <v>1.051073185127086</v>
+        <v>1.1010602</v>
       </c>
       <c r="N14">
-        <v>1.051073185127086</v>
+        <v>1.1010602</v>
       </c>
       <c r="O14">
-        <v>1.049300667497985</v>
+        <v>1.087119966666666</v>
       </c>
       <c r="P14">
-        <v>1.014270975615314</v>
+        <v>1.015083736666666</v>
       </c>
       <c r="Q14">
-        <v>1.014270975615314</v>
+        <v>1.015083736666666</v>
       </c>
       <c r="R14">
-        <v>0.9958698708594276</v>
+        <v>0.9720955049999994</v>
       </c>
       <c r="S14">
-        <v>0.9958698708594276</v>
+        <v>0.9720955049999994</v>
       </c>
       <c r="T14">
-        <v>1.009525305753242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+        <v>1.025083991666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.008159857519185</v>
+        <v>0.99179431</v>
       </c>
       <c r="D15">
-        <v>1.006778233622883</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="E15">
-        <v>0.991220062347043</v>
+        <v>1.3679559</v>
       </c>
       <c r="F15">
-        <v>1.008159857519185</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="G15">
-        <v>0.9655863454539725</v>
+        <v>1.3679559</v>
       </c>
       <c r="H15">
-        <v>1.012166626288526</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="I15">
-        <v>0.9961587785934315</v>
+        <v>0.7938064500000001</v>
       </c>
       <c r="J15">
-        <v>1.006778233622883</v>
+        <v>1.1014624</v>
       </c>
       <c r="K15">
-        <v>1.008159857519185</v>
+        <v>1.3679559</v>
       </c>
       <c r="L15">
-        <v>0.991220062347043</v>
+        <v>0.99179431</v>
       </c>
       <c r="M15">
-        <v>0.9989991479849631</v>
+        <v>0.75735024</v>
       </c>
       <c r="N15">
-        <v>0.9989991479849631</v>
+        <v>0.75735024</v>
       </c>
       <c r="O15">
-        <v>1.003388307419484</v>
+        <v>0.76950231</v>
       </c>
       <c r="P15">
-        <v>1.002052717829704</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="Q15">
-        <v>1.002052717829704</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="R15">
-        <v>1.003579502752074</v>
+        <v>1.06265307</v>
       </c>
       <c r="S15">
-        <v>1.003579502752074</v>
+        <v>1.06265307</v>
       </c>
       <c r="T15">
-        <v>0.9966783173041733</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
+        <v>0.9566266583333332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9994428362001637</v>
+        <v>1.1839119</v>
       </c>
       <c r="D16">
-        <v>1.000290060859973</v>
+        <v>0.41481266</v>
       </c>
       <c r="E16">
-        <v>1.000184196066066</v>
+        <v>1.0841971</v>
       </c>
       <c r="F16">
-        <v>0.9994428362001637</v>
+        <v>0.41481266</v>
       </c>
       <c r="G16">
-        <v>1.000562326964654</v>
+        <v>1.0841971</v>
       </c>
       <c r="H16">
-        <v>1.000025363012597</v>
+        <v>1.5294462</v>
       </c>
       <c r="I16">
-        <v>0.9999680562497377</v>
+        <v>0.6451683</v>
       </c>
       <c r="J16">
-        <v>1.000290060859973</v>
+        <v>1.1548406</v>
       </c>
       <c r="K16">
-        <v>0.9994428362001637</v>
+        <v>1.0841971</v>
       </c>
       <c r="L16">
-        <v>1.000184196066066</v>
+        <v>1.1839119</v>
       </c>
       <c r="M16">
-        <v>1.00023712846302</v>
+        <v>0.79936228</v>
       </c>
       <c r="N16">
-        <v>1.00023712846302</v>
+        <v>0.79936228</v>
       </c>
       <c r="O16">
-        <v>1.000166539979545</v>
+        <v>0.7479642866666666</v>
       </c>
       <c r="P16">
-        <v>0.9999723643754009</v>
+        <v>0.89430722</v>
       </c>
       <c r="Q16">
-        <v>0.999972364375401</v>
+        <v>0.89430722</v>
       </c>
       <c r="R16">
-        <v>0.9998399823315918</v>
+        <v>0.9417796899999999</v>
       </c>
       <c r="S16">
-        <v>0.9998399823315918</v>
+        <v>0.9417796899999999</v>
       </c>
       <c r="T16">
-        <v>1.000078806558865</v>
+        <v>1.002062793333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000544297970817</v>
+        <v>1.0730817</v>
       </c>
       <c r="D17">
-        <v>0.999865303292336</v>
+        <v>0.79415334</v>
       </c>
       <c r="E17">
-        <v>0.9997671432871017</v>
+        <v>1.0190713</v>
       </c>
       <c r="F17">
-        <v>1.000544297970817</v>
+        <v>0.79415334</v>
       </c>
       <c r="G17">
-        <v>0.9993263002416375</v>
+        <v>1.0190713</v>
       </c>
       <c r="H17">
-        <v>1.000054748028101</v>
+        <v>1.2239146</v>
       </c>
       <c r="I17">
-        <v>0.9999937189141367</v>
+        <v>0.8638246100000001</v>
       </c>
       <c r="J17">
-        <v>0.999865303292336</v>
+        <v>1.0573352</v>
       </c>
       <c r="K17">
-        <v>1.000544297970817</v>
+        <v>1.0190713</v>
       </c>
       <c r="L17">
-        <v>0.9997671432871017</v>
+        <v>1.0730817</v>
       </c>
       <c r="M17">
-        <v>0.9998162232897189</v>
+        <v>0.93361752</v>
       </c>
       <c r="N17">
-        <v>0.9998162232897189</v>
+        <v>0.93361752</v>
       </c>
       <c r="O17">
-        <v>0.9998957315358462</v>
+        <v>0.9103532166666667</v>
       </c>
       <c r="P17">
-        <v>1.000058914850085</v>
+        <v>0.9621021133333333</v>
       </c>
       <c r="Q17">
-        <v>1.000058914850085</v>
+        <v>0.9621021133333333</v>
       </c>
       <c r="R17">
-        <v>1.000180260630268</v>
+        <v>0.9763444100000001</v>
       </c>
       <c r="S17">
-        <v>1.000180260630268</v>
+        <v>0.9763444100000001</v>
       </c>
       <c r="T17">
-        <v>0.9999252519556884</v>
+        <v>1.005230125</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9990089156868734</v>
+        <v>0.9771771661643835</v>
       </c>
       <c r="D18">
-        <v>1.0008848762955</v>
+        <v>1.006078789452055</v>
       </c>
       <c r="E18">
-        <v>1.000174583975848</v>
+        <v>1.03755320849315</v>
       </c>
       <c r="F18">
-        <v>0.9990089156868734</v>
+        <v>1.006078789452055</v>
       </c>
       <c r="G18">
-        <v>1.000508440372816</v>
+        <v>1.03755320849315</v>
       </c>
       <c r="H18">
-        <v>1.000312272963337</v>
+        <v>0.9299717589041092</v>
       </c>
       <c r="I18">
-        <v>0.9998347371863321</v>
+        <v>1.016093403150685</v>
       </c>
       <c r="J18">
-        <v>1.0008848762955</v>
+        <v>0.9947795046575336</v>
       </c>
       <c r="K18">
-        <v>0.9990089156868734</v>
+        <v>1.03755320849315</v>
       </c>
       <c r="L18">
-        <v>1.000174583975848</v>
+        <v>0.9771771661643835</v>
       </c>
       <c r="M18">
-        <v>1.000529730135674</v>
+        <v>0.9916279778082194</v>
       </c>
       <c r="N18">
-        <v>1.000529730135674</v>
+        <v>0.9916279778082194</v>
       </c>
       <c r="O18">
-        <v>1.000457244411562</v>
+        <v>0.9997831195890413</v>
       </c>
       <c r="P18">
-        <v>1.000022791986074</v>
+        <v>1.00693638803653</v>
       </c>
       <c r="Q18">
-        <v>1.000022791986074</v>
+        <v>1.00693638803653</v>
       </c>
       <c r="R18">
-        <v>0.9997693229112737</v>
+        <v>1.014590593150685</v>
       </c>
       <c r="S18">
-        <v>0.9997693229112737</v>
+        <v>1.014590593150685</v>
       </c>
       <c r="T18">
-        <v>1.000120637746784</v>
+        <v>0.993608971803653</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9961149383695731</v>
+        <v>1.057223345789474</v>
       </c>
       <c r="D19">
-        <v>1.002701003964608</v>
+        <v>0.920678644736842</v>
       </c>
       <c r="E19">
-        <v>1.000960599344232</v>
+        <v>0.957752965263158</v>
       </c>
       <c r="F19">
-        <v>0.9961149383695731</v>
+        <v>0.920678644736842</v>
       </c>
       <c r="G19">
-        <v>1.002670363709045</v>
+        <v>0.957752965263158</v>
       </c>
       <c r="H19">
-        <v>1.000801551454535</v>
+        <v>1.186458268421053</v>
       </c>
       <c r="I19">
-        <v>0.9995478672095232</v>
+        <v>0.9249941805263157</v>
       </c>
       <c r="J19">
-        <v>1.002701003964608</v>
+        <v>1.028223237894737</v>
       </c>
       <c r="K19">
-        <v>0.9961149383695731</v>
+        <v>0.957752965263158</v>
       </c>
       <c r="L19">
-        <v>1.000960599344232</v>
+        <v>1.057223345789474</v>
       </c>
       <c r="M19">
-        <v>1.00183080165442</v>
+        <v>0.9889509952631578</v>
       </c>
       <c r="N19">
-        <v>1.00183080165442</v>
+        <v>0.9889509952631578</v>
       </c>
       <c r="O19">
-        <v>1.001487718254458</v>
+        <v>0.9676320570175437</v>
       </c>
       <c r="P19">
-        <v>0.9999255138928044</v>
+        <v>0.9785516519298246</v>
       </c>
       <c r="Q19">
-        <v>0.9999255138928044</v>
+        <v>0.9785516519298246</v>
       </c>
       <c r="R19">
-        <v>0.9989728700119965</v>
+        <v>0.9733519802631579</v>
       </c>
       <c r="S19">
-        <v>0.9989728700119965</v>
+        <v>0.9733519802631579</v>
       </c>
       <c r="T19">
-        <v>1.000466054008586</v>
+        <v>1.012555107105263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.048737092631579</v>
+      </c>
+      <c r="D20">
+        <v>0.7495736599999999</v>
+      </c>
+      <c r="E20">
+        <v>1.090005888421053</v>
+      </c>
+      <c r="F20">
+        <v>0.7495736599999999</v>
+      </c>
+      <c r="G20">
+        <v>1.090005888421053</v>
+      </c>
+      <c r="H20">
+        <v>1.128112141052632</v>
+      </c>
+      <c r="I20">
+        <v>0.8681440084210525</v>
+      </c>
+      <c r="J20">
+        <v>1.060768799473684</v>
+      </c>
+      <c r="K20">
+        <v>1.090005888421053</v>
+      </c>
+      <c r="L20">
+        <v>1.048737092631579</v>
+      </c>
+      <c r="M20">
+        <v>0.8991553763157893</v>
+      </c>
+      <c r="N20">
+        <v>0.8991553763157893</v>
+      </c>
+      <c r="O20">
+        <v>0.8888182536842105</v>
+      </c>
+      <c r="P20">
+        <v>0.9627722136842104</v>
+      </c>
+      <c r="Q20">
+        <v>0.9627722136842104</v>
+      </c>
+      <c r="R20">
+        <v>0.994580632368421</v>
+      </c>
+      <c r="S20">
+        <v>0.994580632368421</v>
+      </c>
+      <c r="T20">
+        <v>0.9908902649999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9910547260780442</v>
+      </c>
+      <c r="D21">
+        <v>1.111091644176128</v>
+      </c>
+      <c r="E21">
+        <v>0.9406665565917691</v>
+      </c>
+      <c r="F21">
+        <v>1.111091644176128</v>
+      </c>
+      <c r="G21">
+        <v>0.9406665565917691</v>
+      </c>
+      <c r="H21">
+        <v>0.9922189759790226</v>
+      </c>
+      <c r="I21">
+        <v>1.045755632239784</v>
+      </c>
+      <c r="J21">
+        <v>0.9763642994547048</v>
+      </c>
+      <c r="K21">
+        <v>0.9406665565917691</v>
+      </c>
+      <c r="L21">
+        <v>0.9910547260780442</v>
+      </c>
+      <c r="M21">
+        <v>1.051073185127086</v>
+      </c>
+      <c r="N21">
+        <v>1.051073185127086</v>
+      </c>
+      <c r="O21">
+        <v>1.049300667497985</v>
+      </c>
+      <c r="P21">
+        <v>1.014270975615314</v>
+      </c>
+      <c r="Q21">
+        <v>1.014270975615314</v>
+      </c>
+      <c r="R21">
+        <v>0.9958698708594276</v>
+      </c>
+      <c r="S21">
+        <v>0.9958698708594276</v>
+      </c>
+      <c r="T21">
+        <v>1.009525305753242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.991220062347043</v>
+      </c>
+      <c r="D22">
+        <v>1.006778233622883</v>
+      </c>
+      <c r="E22">
+        <v>1.008159857519185</v>
+      </c>
+      <c r="F22">
+        <v>1.006778233622883</v>
+      </c>
+      <c r="G22">
+        <v>1.008159857519185</v>
+      </c>
+      <c r="H22">
+        <v>0.9655863454539725</v>
+      </c>
+      <c r="I22">
+        <v>1.012166626288525</v>
+      </c>
+      <c r="J22">
+        <v>0.9961587785934316</v>
+      </c>
+      <c r="K22">
+        <v>1.008159857519185</v>
+      </c>
+      <c r="L22">
+        <v>0.991220062347043</v>
+      </c>
+      <c r="M22">
+        <v>0.9989991479849631</v>
+      </c>
+      <c r="N22">
+        <v>0.9989991479849631</v>
+      </c>
+      <c r="O22">
+        <v>1.003388307419484</v>
+      </c>
+      <c r="P22">
+        <v>1.002052717829704</v>
+      </c>
+      <c r="Q22">
+        <v>1.002052717829704</v>
+      </c>
+      <c r="R22">
+        <v>1.003579502752074</v>
+      </c>
+      <c r="S22">
+        <v>1.003579502752074</v>
+      </c>
+      <c r="T22">
+        <v>0.9966783173041733</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9777317828050288</v>
+      </c>
+      <c r="D23">
+        <v>0.9992466283871493</v>
+      </c>
+      <c r="E23">
+        <v>1.038835074496009</v>
+      </c>
+      <c r="F23">
+        <v>0.9992466283871493</v>
+      </c>
+      <c r="G23">
+        <v>1.038835074496009</v>
+      </c>
+      <c r="H23">
+        <v>0.9239866028123825</v>
+      </c>
+      <c r="I23">
+        <v>1.016547396473286</v>
+      </c>
+      <c r="J23">
+        <v>0.9955461548607842</v>
+      </c>
+      <c r="K23">
+        <v>1.038835074496009</v>
+      </c>
+      <c r="L23">
+        <v>0.9777317828050288</v>
+      </c>
+      <c r="M23">
+        <v>0.988489205596089</v>
+      </c>
+      <c r="N23">
+        <v>0.988489205596089</v>
+      </c>
+      <c r="O23">
+        <v>0.9978419358884878</v>
+      </c>
+      <c r="P23">
+        <v>1.005271161896062</v>
+      </c>
+      <c r="Q23">
+        <v>1.005271161896062</v>
+      </c>
+      <c r="R23">
+        <v>1.013662140046049</v>
+      </c>
+      <c r="S23">
+        <v>1.013662140046049</v>
+      </c>
+      <c r="T23">
+        <v>0.9919822733057732</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.002834898811944</v>
+      </c>
+      <c r="D24">
+        <v>1.025225437342336</v>
+      </c>
+      <c r="E24">
+        <v>0.9794400280826275</v>
+      </c>
+      <c r="F24">
+        <v>1.025225437342336</v>
+      </c>
+      <c r="G24">
+        <v>0.9794400280826275</v>
+      </c>
+      <c r="H24">
+        <v>1.018092958882776</v>
+      </c>
+      <c r="I24">
+        <v>1.004989063806324</v>
+      </c>
+      <c r="J24">
+        <v>0.9960142378716773</v>
+      </c>
+      <c r="K24">
+        <v>0.9794400280826275</v>
+      </c>
+      <c r="L24">
+        <v>1.002834898811944</v>
+      </c>
+      <c r="M24">
+        <v>1.01403016807714</v>
+      </c>
+      <c r="N24">
+        <v>1.01403016807714</v>
+      </c>
+      <c r="O24">
+        <v>1.011016466653535</v>
+      </c>
+      <c r="P24">
+        <v>1.002500121412303</v>
+      </c>
+      <c r="Q24">
+        <v>1.002500121412303</v>
+      </c>
+      <c r="R24">
+        <v>0.996735098079884</v>
+      </c>
+      <c r="S24">
+        <v>0.996735098079884</v>
+      </c>
+      <c r="T24">
+        <v>1.004432770799615</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.027700087903086</v>
+      </c>
+      <c r="D25">
+        <v>0.7616295628231489</v>
+      </c>
+      <c r="E25">
+        <v>1.118088313370829</v>
+      </c>
+      <c r="F25">
+        <v>0.7616295628231489</v>
+      </c>
+      <c r="G25">
+        <v>1.118088313370829</v>
+      </c>
+      <c r="H25">
+        <v>1.059652676860525</v>
+      </c>
+      <c r="I25">
+        <v>0.8880981190138727</v>
+      </c>
+      <c r="J25">
+        <v>1.0540523544272</v>
+      </c>
+      <c r="K25">
+        <v>1.118088313370829</v>
+      </c>
+      <c r="L25">
+        <v>1.027700087903086</v>
+      </c>
+      <c r="M25">
+        <v>0.8946648253631175</v>
+      </c>
+      <c r="N25">
+        <v>0.8946648253631175</v>
+      </c>
+      <c r="O25">
+        <v>0.8924759232467027</v>
+      </c>
+      <c r="P25">
+        <v>0.9691393213656879</v>
+      </c>
+      <c r="Q25">
+        <v>0.9691393213656879</v>
+      </c>
+      <c r="R25">
+        <v>1.006376569366973</v>
+      </c>
+      <c r="S25">
+        <v>1.006376569366973</v>
+      </c>
+      <c r="T25">
+        <v>0.9848701857331101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.022983676639145</v>
+      </c>
+      <c r="D26">
+        <v>0.9620042943273465</v>
+      </c>
+      <c r="E26">
+        <v>0.9838550322449557</v>
+      </c>
+      <c r="F26">
+        <v>0.9620042943273465</v>
+      </c>
+      <c r="G26">
+        <v>0.9838550322449557</v>
+      </c>
+      <c r="H26">
+        <v>1.06512062059559</v>
+      </c>
+      <c r="I26">
+        <v>0.9721712081815933</v>
+      </c>
+      <c r="J26">
+        <v>1.011575920409492</v>
+      </c>
+      <c r="K26">
+        <v>0.9838550322449557</v>
+      </c>
+      <c r="L26">
+        <v>1.022983676639145</v>
+      </c>
+      <c r="M26">
+        <v>0.9924939854832457</v>
+      </c>
+      <c r="N26">
+        <v>0.9924939854832457</v>
+      </c>
+      <c r="O26">
+        <v>0.9857197263826949</v>
+      </c>
+      <c r="P26">
+        <v>0.9896143344038157</v>
+      </c>
+      <c r="Q26">
+        <v>0.9896143344038156</v>
+      </c>
+      <c r="R26">
+        <v>0.9881745088641006</v>
+      </c>
+      <c r="S26">
+        <v>0.9881745088641006</v>
+      </c>
+      <c r="T26">
+        <v>1.002951792066354</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9960588942088906</v>
+      </c>
+      <c r="D27">
+        <v>1.007974576759556</v>
+      </c>
+      <c r="E27">
+        <v>1.003703798440709</v>
+      </c>
+      <c r="F27">
+        <v>1.007974576759556</v>
+      </c>
+      <c r="G27">
+        <v>1.003703798440709</v>
+      </c>
+      <c r="H27">
+        <v>0.9937235104697414</v>
+      </c>
+      <c r="I27">
+        <v>1.002783140911989</v>
+      </c>
+      <c r="J27">
+        <v>0.9982877289120978</v>
+      </c>
+      <c r="K27">
+        <v>1.003703798440709</v>
+      </c>
+      <c r="L27">
+        <v>0.9960588942088906</v>
+      </c>
+      <c r="M27">
+        <v>1.002016735484224</v>
+      </c>
+      <c r="N27">
+        <v>1.002016735484224</v>
+      </c>
+      <c r="O27">
+        <v>1.002272203960145</v>
+      </c>
+      <c r="P27">
+        <v>1.002579089803052</v>
+      </c>
+      <c r="Q27">
+        <v>1.002579089803052</v>
+      </c>
+      <c r="R27">
+        <v>1.002860266962466</v>
+      </c>
+      <c r="S27">
+        <v>1.002860266962466</v>
+      </c>
+      <c r="T27">
+        <v>1.000421941617164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.010070410935354</v>
+      </c>
+      <c r="D28">
+        <v>0.960230532863898</v>
+      </c>
+      <c r="E28">
+        <v>1.009266827950605</v>
+      </c>
+      <c r="F28">
+        <v>0.960230532863898</v>
+      </c>
+      <c r="G28">
+        <v>1.009266827950605</v>
+      </c>
+      <c r="H28">
+        <v>1.025301838798626</v>
+      </c>
+      <c r="I28">
+        <v>0.9787539263913138</v>
+      </c>
+      <c r="J28">
+        <v>1.009836118813313</v>
+      </c>
+      <c r="K28">
+        <v>1.009266827950605</v>
+      </c>
+      <c r="L28">
+        <v>1.010070410935354</v>
+      </c>
+      <c r="M28">
+        <v>0.9851504718996261</v>
+      </c>
+      <c r="N28">
+        <v>0.9851504718996261</v>
+      </c>
+      <c r="O28">
+        <v>0.983018290063522</v>
+      </c>
+      <c r="P28">
+        <v>0.9931892572499524</v>
+      </c>
+      <c r="Q28">
+        <v>0.9931892572499524</v>
+      </c>
+      <c r="R28">
+        <v>0.9972086499251156</v>
+      </c>
+      <c r="S28">
+        <v>0.9972086499251156</v>
+      </c>
+      <c r="T28">
+        <v>0.9989099426255184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.007769953449376</v>
+      </c>
+      <c r="D29">
+        <v>0.9440771880697258</v>
+      </c>
+      <c r="E29">
+        <v>1.028553002665134</v>
+      </c>
+      <c r="F29">
+        <v>0.9440771880697258</v>
+      </c>
+      <c r="G29">
+        <v>1.028553002665134</v>
+      </c>
+      <c r="H29">
+        <v>1.026326159283887</v>
+      </c>
+      <c r="I29">
+        <v>0.9686556015666984</v>
+      </c>
+      <c r="J29">
+        <v>1.013829143310322</v>
+      </c>
+      <c r="K29">
+        <v>1.028553002665134</v>
+      </c>
+      <c r="L29">
+        <v>1.007769953449376</v>
+      </c>
+      <c r="M29">
+        <v>0.9759235707595508</v>
+      </c>
+      <c r="N29">
+        <v>0.9759235707595508</v>
+      </c>
+      <c r="O29">
+        <v>0.9735009143619333</v>
+      </c>
+      <c r="P29">
+        <v>0.9934667147280786</v>
+      </c>
+      <c r="Q29">
+        <v>0.9934667147280786</v>
+      </c>
+      <c r="R29">
+        <v>1.002238286712342</v>
+      </c>
+      <c r="S29">
+        <v>1.002238286712342</v>
+      </c>
+      <c r="T29">
+        <v>0.998201841390857</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.024850360989319</v>
+        <v>1.000478137718011</v>
       </c>
       <c r="D4">
-        <v>0.9178263944912997</v>
+        <v>1.024728322086813</v>
       </c>
       <c r="E4">
-        <v>1.013288224469687</v>
+        <v>0.9819445537750674</v>
       </c>
       <c r="F4">
-        <v>0.9178263944912997</v>
+        <v>1.024728322086813</v>
       </c>
       <c r="G4">
-        <v>1.013288224469687</v>
+        <v>0.9819445537750674</v>
       </c>
       <c r="H4">
-        <v>1.070073129354303</v>
+        <v>1.005058547844381</v>
       </c>
       <c r="I4">
-        <v>0.9512907329030474</v>
+        <v>1.009144973949326</v>
       </c>
       <c r="J4">
-        <v>1.021479474458476</v>
+        <v>0.9950747618132221</v>
       </c>
       <c r="K4">
-        <v>1.013288224469687</v>
+        <v>0.9819445537750674</v>
       </c>
       <c r="L4">
-        <v>1.024850360989319</v>
+        <v>1.000478137718011</v>
       </c>
       <c r="M4">
-        <v>0.9713383777403095</v>
+        <v>1.012603229902412</v>
       </c>
       <c r="N4">
-        <v>0.9713383777403095</v>
+        <v>1.012603229902412</v>
       </c>
       <c r="O4">
-        <v>0.9646558294612221</v>
+        <v>1.01145047791805</v>
       </c>
       <c r="P4">
-        <v>0.9853216599834352</v>
+        <v>1.002383671193297</v>
       </c>
       <c r="Q4">
-        <v>0.9853216599834352</v>
+        <v>1.002383671193297</v>
       </c>
       <c r="R4">
-        <v>0.992313301104998</v>
+        <v>0.9972738918387397</v>
       </c>
       <c r="S4">
-        <v>0.992313301104998</v>
+        <v>0.9972738918387397</v>
       </c>
       <c r="T4">
-        <v>0.9998013861110221</v>
+        <v>1.002738216197803</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000969139610949</v>
+        <v>1.052943902210302</v>
       </c>
       <c r="D5">
-        <v>1.022786021498557</v>
+        <v>0.720519821052607</v>
       </c>
       <c r="E5">
-        <v>0.9825539647622457</v>
+        <v>1.102395021679571</v>
       </c>
       <c r="F5">
-        <v>1.022786021498557</v>
+        <v>0.720519821052607</v>
       </c>
       <c r="G5">
-        <v>0.9825539647622457</v>
+        <v>1.102395021679571</v>
       </c>
       <c r="H5">
-        <v>1.006710693472622</v>
+        <v>1.136654632538749</v>
       </c>
       <c r="I5">
-        <v>1.007894239481267</v>
+        <v>0.8546696816976938</v>
       </c>
       <c r="J5">
-        <v>0.9956002852089351</v>
+        <v>1.067361123647926</v>
       </c>
       <c r="K5">
-        <v>0.9825539647622457</v>
+        <v>1.102395021679571</v>
       </c>
       <c r="L5">
-        <v>1.000969139610949</v>
+        <v>1.052943902210302</v>
       </c>
       <c r="M5">
-        <v>1.011877580554753</v>
+        <v>0.8867318616314546</v>
       </c>
       <c r="N5">
-        <v>1.011877580554753</v>
+        <v>0.8867318616314546</v>
       </c>
       <c r="O5">
-        <v>1.010549800196924</v>
+        <v>0.876044468320201</v>
       </c>
       <c r="P5">
-        <v>1.00210304195725</v>
+        <v>0.9586195816474934</v>
       </c>
       <c r="Q5">
-        <v>1.00210304195725</v>
+        <v>0.9586195816474934</v>
       </c>
       <c r="R5">
-        <v>0.9972157726584991</v>
+        <v>0.9945634416555127</v>
       </c>
       <c r="S5">
-        <v>0.9972157726584991</v>
+        <v>0.9945634416555127</v>
       </c>
       <c r="T5">
-        <v>1.002752390672429</v>
+        <v>0.9890906971378081</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.008218985586237</v>
+        <v>1.024850360989319</v>
       </c>
       <c r="D6">
-        <v>1.10429227336268</v>
+        <v>0.9178263944912997</v>
       </c>
       <c r="E6">
-        <v>0.9133477108892112</v>
+        <v>1.013288224469687</v>
       </c>
       <c r="F6">
-        <v>1.10429227336268</v>
+        <v>0.9178263944912997</v>
       </c>
       <c r="G6">
-        <v>0.9133477108892112</v>
+        <v>1.013288224469687</v>
       </c>
       <c r="H6">
-        <v>1.042720045849107</v>
+        <v>1.070073129354303</v>
       </c>
       <c r="I6">
-        <v>1.033697931072391</v>
+        <v>0.9512907329030474</v>
       </c>
       <c r="J6">
-        <v>0.9805597290106792</v>
+        <v>1.021479474458476</v>
       </c>
       <c r="K6">
-        <v>0.9133477108892112</v>
+        <v>1.013288224469687</v>
       </c>
       <c r="L6">
-        <v>1.008218985586237</v>
+        <v>1.024850360989319</v>
       </c>
       <c r="M6">
-        <v>1.056255629474459</v>
+        <v>0.9713383777403095</v>
       </c>
       <c r="N6">
-        <v>1.056255629474459</v>
+        <v>0.9713383777403095</v>
       </c>
       <c r="O6">
-        <v>1.048736396673769</v>
+        <v>0.9646558294612221</v>
       </c>
       <c r="P6">
-        <v>1.008619656612709</v>
+        <v>0.9853216599834352</v>
       </c>
       <c r="Q6">
-        <v>1.008619656612709</v>
+        <v>0.9853216599834352</v>
       </c>
       <c r="R6">
-        <v>0.984801670181835</v>
+        <v>0.992313301104998</v>
       </c>
       <c r="S6">
-        <v>0.984801670181835</v>
+        <v>0.992313301104998</v>
       </c>
       <c r="T6">
-        <v>1.013806112628384</v>
+        <v>0.9998013861110221</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9991076428134593</v>
+        <v>1.000969139610949</v>
       </c>
       <c r="D7">
-        <v>0.9994579654158591</v>
+        <v>1.022786021498557</v>
       </c>
       <c r="E7">
-        <v>1.002023895402431</v>
+        <v>0.9825539647622457</v>
       </c>
       <c r="F7">
-        <v>0.9994579654158591</v>
+        <v>1.022786021498557</v>
       </c>
       <c r="G7">
-        <v>1.002023895402431</v>
+        <v>0.9825539647622457</v>
       </c>
       <c r="H7">
-        <v>0.9971796609408724</v>
+        <v>1.006710693472622</v>
       </c>
       <c r="I7">
-        <v>1.000314351115138</v>
+        <v>1.007894239481267</v>
       </c>
       <c r="J7">
-        <v>0.9999578623322459</v>
+        <v>0.9956002852089351</v>
       </c>
       <c r="K7">
-        <v>1.002023895402431</v>
+        <v>0.9825539647622457</v>
       </c>
       <c r="L7">
-        <v>0.9991076428134593</v>
+        <v>1.000969139610949</v>
       </c>
       <c r="M7">
-        <v>0.9992828041146592</v>
+        <v>1.011877580554753</v>
       </c>
       <c r="N7">
-        <v>0.9992828041146592</v>
+        <v>1.011877580554753</v>
       </c>
       <c r="O7">
-        <v>0.9996266531148188</v>
+        <v>1.010549800196924</v>
       </c>
       <c r="P7">
-        <v>1.000196501210583</v>
+        <v>1.00210304195725</v>
       </c>
       <c r="Q7">
-        <v>1.000196501210583</v>
+        <v>1.00210304195725</v>
       </c>
       <c r="R7">
-        <v>1.000653349758545</v>
+        <v>0.9972157726584991</v>
       </c>
       <c r="S7">
-        <v>1.000653349758545</v>
+        <v>0.9972157726584991</v>
       </c>
       <c r="T7">
-        <v>0.9996735630033342</v>
+        <v>1.002752390672429</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.999767143287101</v>
+        <v>1.008218985586237</v>
       </c>
       <c r="D8">
-        <v>0.999865303292336</v>
+        <v>1.10429227336268</v>
       </c>
       <c r="E8">
-        <v>1.000544297970817</v>
+        <v>0.9133477108892112</v>
       </c>
       <c r="F8">
-        <v>0.999865303292336</v>
+        <v>1.10429227336268</v>
       </c>
       <c r="G8">
-        <v>1.000544297970817</v>
+        <v>0.9133477108892112</v>
       </c>
       <c r="H8">
-        <v>0.9993263002416379</v>
+        <v>1.042720045849107</v>
       </c>
       <c r="I8">
-        <v>1.000054748028101</v>
+        <v>1.033697931072391</v>
       </c>
       <c r="J8">
-        <v>0.9999937189141367</v>
+        <v>0.9805597290106792</v>
       </c>
       <c r="K8">
-        <v>1.000544297970817</v>
+        <v>0.9133477108892112</v>
       </c>
       <c r="L8">
-        <v>0.999767143287101</v>
+        <v>1.008218985586237</v>
       </c>
       <c r="M8">
-        <v>0.9998162232897185</v>
+        <v>1.056255629474459</v>
       </c>
       <c r="N8">
-        <v>0.9998162232897185</v>
+        <v>1.056255629474459</v>
       </c>
       <c r="O8">
-        <v>0.999895731535846</v>
+        <v>1.048736396673769</v>
       </c>
       <c r="P8">
-        <v>1.000058914850085</v>
+        <v>1.008619656612709</v>
       </c>
       <c r="Q8">
-        <v>1.000058914850085</v>
+        <v>1.008619656612709</v>
       </c>
       <c r="R8">
-        <v>1.000180260630268</v>
+        <v>0.984801670181835</v>
       </c>
       <c r="S8">
-        <v>1.000180260630268</v>
+        <v>0.984801670181835</v>
       </c>
       <c r="T8">
-        <v>0.9999252519556884</v>
+        <v>1.013806112628384</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9981443521734407</v>
+        <v>0.9991076428134593</v>
       </c>
       <c r="D9">
-        <v>1.001221750004034</v>
+        <v>0.9994579654158591</v>
       </c>
       <c r="E9">
-        <v>1.002529017172163</v>
+        <v>1.002023895402431</v>
       </c>
       <c r="F9">
-        <v>1.001221750004034</v>
+        <v>0.9994579654158591</v>
       </c>
       <c r="G9">
-        <v>1.002529017172163</v>
+        <v>1.002023895402431</v>
       </c>
       <c r="H9">
-        <v>0.9943628843492789</v>
+        <v>0.9971796609408724</v>
       </c>
       <c r="I9">
-        <v>1.001611414780199</v>
+        <v>1.000314351115138</v>
       </c>
       <c r="J9">
-        <v>0.9994226793544693</v>
+        <v>0.9999578623322459</v>
       </c>
       <c r="K9">
-        <v>1.002529017172163</v>
+        <v>1.002023895402431</v>
       </c>
       <c r="L9">
-        <v>0.9981443521734407</v>
+        <v>0.9991076428134593</v>
       </c>
       <c r="M9">
-        <v>0.9996830510887376</v>
+        <v>0.9992828041146592</v>
       </c>
       <c r="N9">
-        <v>0.9996830510887376</v>
+        <v>0.9992828041146592</v>
       </c>
       <c r="O9">
-        <v>1.000325838985891</v>
+        <v>0.9996266531148188</v>
       </c>
       <c r="P9">
-        <v>1.000631706449879</v>
+        <v>1.000196501210583</v>
       </c>
       <c r="Q9">
-        <v>1.000631706449879</v>
+        <v>1.000196501210583</v>
       </c>
       <c r="R9">
-        <v>1.00110603413045</v>
+        <v>1.000653349758545</v>
       </c>
       <c r="S9">
-        <v>1.00110603413045</v>
+        <v>1.000653349758545</v>
       </c>
       <c r="T9">
-        <v>0.9995486829722643</v>
+        <v>0.9996735630033342</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.008682043499835</v>
+        <v>0.999767143287101</v>
       </c>
       <c r="D10">
-        <v>1.106679737214463</v>
+        <v>0.999865303292336</v>
       </c>
       <c r="E10">
-        <v>0.9109092965549574</v>
+        <v>1.000544297970817</v>
       </c>
       <c r="F10">
-        <v>1.106679737214463</v>
+        <v>0.999865303292336</v>
       </c>
       <c r="G10">
-        <v>0.9109092965549574</v>
+        <v>1.000544297970817</v>
       </c>
       <c r="H10">
-        <v>1.044689420794415</v>
+        <v>0.9993263002416379</v>
       </c>
       <c r="I10">
-        <v>1.034235253590688</v>
+        <v>1.000054748028101</v>
       </c>
       <c r="J10">
-        <v>0.9801768775243048</v>
+        <v>0.9999937189141367</v>
       </c>
       <c r="K10">
-        <v>0.9109092965549574</v>
+        <v>1.000544297970817</v>
       </c>
       <c r="L10">
-        <v>1.008682043499835</v>
+        <v>0.999767143287101</v>
       </c>
       <c r="M10">
-        <v>1.057680890357149</v>
+        <v>0.9998162232897185</v>
       </c>
       <c r="N10">
-        <v>1.057680890357149</v>
+        <v>0.9998162232897185</v>
       </c>
       <c r="O10">
-        <v>1.049865678101662</v>
+        <v>0.999895731535846</v>
       </c>
       <c r="P10">
-        <v>1.008757025756418</v>
+        <v>1.000058914850085</v>
       </c>
       <c r="Q10">
-        <v>1.008757025756418</v>
+        <v>1.000058914850085</v>
       </c>
       <c r="R10">
-        <v>0.984295093456053</v>
+        <v>1.000180260630268</v>
       </c>
       <c r="S10">
-        <v>0.984295093456053</v>
+        <v>1.000180260630268</v>
       </c>
       <c r="T10">
-        <v>1.014228771529777</v>
+        <v>0.9999252519556884</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.016325543423336</v>
+        <v>0.9981443521734407</v>
       </c>
       <c r="D11">
-        <v>0.9328634298543418</v>
+        <v>1.001221750004034</v>
       </c>
       <c r="E11">
-        <v>1.017567983895317</v>
+        <v>1.002529017172163</v>
       </c>
       <c r="F11">
-        <v>0.9328634298543418</v>
+        <v>1.001221750004034</v>
       </c>
       <c r="G11">
-        <v>1.017567983895317</v>
+        <v>1.002529017172163</v>
       </c>
       <c r="H11">
-        <v>1.04317358063493</v>
+        <v>0.9943628843492789</v>
       </c>
       <c r="I11">
-        <v>0.9634303251158395</v>
+        <v>1.001611414780199</v>
       </c>
       <c r="J11">
-        <v>1.01668776875428</v>
+        <v>0.9994226793544693</v>
       </c>
       <c r="K11">
-        <v>1.017567983895317</v>
+        <v>1.002529017172163</v>
       </c>
       <c r="L11">
-        <v>1.016325543423336</v>
+        <v>0.9981443521734407</v>
       </c>
       <c r="M11">
-        <v>0.9745944866388387</v>
+        <v>0.9996830510887376</v>
       </c>
       <c r="N11">
-        <v>0.9745944866388387</v>
+        <v>0.9996830510887376</v>
       </c>
       <c r="O11">
-        <v>0.9708730994645056</v>
+        <v>1.000325838985891</v>
       </c>
       <c r="P11">
-        <v>0.9889189857243315</v>
+        <v>1.000631706449879</v>
       </c>
       <c r="Q11">
-        <v>0.9889189857243316</v>
+        <v>1.000631706449879</v>
       </c>
       <c r="R11">
-        <v>0.996081235267078</v>
+        <v>1.00110603413045</v>
       </c>
       <c r="S11">
-        <v>0.996081235267078</v>
+        <v>1.00110603413045</v>
       </c>
       <c r="T11">
-        <v>0.9983414386130073</v>
+        <v>0.9995486829722643</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.003349496052631</v>
+        <v>1.008682043499835</v>
       </c>
       <c r="D12">
-        <v>1.029562525494736</v>
+        <v>1.106679737214463</v>
       </c>
       <c r="E12">
-        <v>0.9736157815263144</v>
+        <v>0.9109092965549574</v>
       </c>
       <c r="F12">
-        <v>1.029562525494736</v>
+        <v>1.106679737214463</v>
       </c>
       <c r="G12">
-        <v>0.9736157815263144</v>
+        <v>0.9109092965549574</v>
       </c>
       <c r="H12">
-        <v>1.015459376473685</v>
+        <v>1.044689420794415</v>
       </c>
       <c r="I12">
-        <v>1.008860717431578</v>
+        <v>1.034235253590688</v>
       </c>
       <c r="J12">
-        <v>0.9946807785789503</v>
+        <v>0.9801768775243048</v>
       </c>
       <c r="K12">
-        <v>0.9736157815263144</v>
+        <v>0.9109092965549574</v>
       </c>
       <c r="L12">
-        <v>1.003349496052631</v>
+        <v>1.008682043499835</v>
       </c>
       <c r="M12">
-        <v>1.016456010773683</v>
+        <v>1.057680890357149</v>
       </c>
       <c r="N12">
-        <v>1.016456010773683</v>
+        <v>1.057680890357149</v>
       </c>
       <c r="O12">
-        <v>1.013924246326315</v>
+        <v>1.049865678101662</v>
       </c>
       <c r="P12">
-        <v>1.002175934357894</v>
+        <v>1.008757025756418</v>
       </c>
       <c r="Q12">
-        <v>1.002175934357894</v>
+        <v>1.008757025756418</v>
       </c>
       <c r="R12">
-        <v>0.995035896149999</v>
+        <v>0.984295093456053</v>
       </c>
       <c r="S12">
-        <v>0.995035896149999</v>
+        <v>0.984295093456053</v>
       </c>
       <c r="T12">
-        <v>1.004254779259649</v>
+        <v>1.014228771529777</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.002084271483676</v>
+        <v>1.016325543423336</v>
       </c>
       <c r="D13">
-        <v>0.9878336081641282</v>
+        <v>0.9328634298543418</v>
       </c>
       <c r="E13">
-        <v>1.00498051883583</v>
+        <v>1.017567983895317</v>
       </c>
       <c r="F13">
-        <v>0.9878336081641282</v>
+        <v>0.9328634298543418</v>
       </c>
       <c r="G13">
-        <v>1.00498051883583</v>
+        <v>1.017567983895317</v>
       </c>
       <c r="H13">
-        <v>1.005657089598067</v>
+        <v>1.04317358063493</v>
       </c>
       <c r="I13">
-        <v>0.9936256978887292</v>
+        <v>0.9634303251158395</v>
       </c>
       <c r="J13">
-        <v>1.002928661494357</v>
+        <v>1.01668776875428</v>
       </c>
       <c r="K13">
-        <v>1.00498051883583</v>
+        <v>1.017567983895317</v>
       </c>
       <c r="L13">
-        <v>1.002084271483676</v>
+        <v>1.016325543423336</v>
       </c>
       <c r="M13">
-        <v>0.994958939823902</v>
+        <v>0.9745944866388387</v>
       </c>
       <c r="N13">
-        <v>0.994958939823902</v>
+        <v>0.9745944866388387</v>
       </c>
       <c r="O13">
-        <v>0.9945145258455111</v>
+        <v>0.9708730994645056</v>
       </c>
       <c r="P13">
-        <v>0.9982994661612113</v>
+        <v>0.9889189857243315</v>
       </c>
       <c r="Q13">
-        <v>0.9982994661612113</v>
+        <v>0.9889189857243316</v>
       </c>
       <c r="R13">
-        <v>0.9999697293298661</v>
+        <v>0.996081235267078</v>
       </c>
       <c r="S13">
-        <v>0.9999697293298661</v>
+        <v>0.996081235267078</v>
       </c>
       <c r="T13">
-        <v>0.9995183079107979</v>
+        <v>0.9983414386130073</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.015927599999999</v>
+        <v>1.003349496052631</v>
       </c>
       <c r="D14">
-        <v>1.1861928</v>
+        <v>1.029562525494736</v>
       </c>
       <c r="E14">
-        <v>0.8431308099999995</v>
+        <v>0.9736157815263144</v>
       </c>
       <c r="F14">
-        <v>1.1861928</v>
+        <v>1.029562525494736</v>
       </c>
       <c r="G14">
-        <v>0.8431308099999995</v>
+        <v>0.9736157815263144</v>
       </c>
       <c r="H14">
-        <v>1.0804637</v>
+        <v>1.015459376473685</v>
       </c>
       <c r="I14">
-        <v>1.059239499999999</v>
+        <v>1.008860717431578</v>
       </c>
       <c r="J14">
-        <v>0.9655495399999992</v>
+        <v>0.9946807785789503</v>
       </c>
       <c r="K14">
-        <v>0.8431308099999995</v>
+        <v>0.9736157815263144</v>
       </c>
       <c r="L14">
-        <v>1.015927599999999</v>
+        <v>1.003349496052631</v>
       </c>
       <c r="M14">
-        <v>1.1010602</v>
+        <v>1.016456010773683</v>
       </c>
       <c r="N14">
-        <v>1.1010602</v>
+        <v>1.016456010773683</v>
       </c>
       <c r="O14">
-        <v>1.087119966666666</v>
+        <v>1.013924246326315</v>
       </c>
       <c r="P14">
-        <v>1.015083736666666</v>
+        <v>1.002175934357894</v>
       </c>
       <c r="Q14">
-        <v>1.015083736666666</v>
+        <v>1.002175934357894</v>
       </c>
       <c r="R14">
-        <v>0.9720955049999994</v>
+        <v>0.995035896149999</v>
       </c>
       <c r="S14">
-        <v>0.9720955049999994</v>
+        <v>0.995035896149999</v>
       </c>
       <c r="T14">
-        <v>1.025083991666666</v>
+        <v>1.004254779259649</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.99179431</v>
+        <v>1.002084271483676</v>
       </c>
       <c r="D15">
-        <v>0.5229061699999999</v>
+        <v>0.9878336081641282</v>
       </c>
       <c r="E15">
-        <v>1.3679559</v>
+        <v>1.00498051883583</v>
       </c>
       <c r="F15">
-        <v>0.5229061699999999</v>
+        <v>0.9878336081641282</v>
       </c>
       <c r="G15">
-        <v>1.3679559</v>
+        <v>1.00498051883583</v>
       </c>
       <c r="H15">
-        <v>0.9618347200000001</v>
+        <v>1.005657089598067</v>
       </c>
       <c r="I15">
-        <v>0.7938064500000001</v>
+        <v>0.9936256978887292</v>
       </c>
       <c r="J15">
-        <v>1.1014624</v>
+        <v>1.002928661494357</v>
       </c>
       <c r="K15">
-        <v>1.3679559</v>
+        <v>1.00498051883583</v>
       </c>
       <c r="L15">
-        <v>0.99179431</v>
+        <v>1.002084271483676</v>
       </c>
       <c r="M15">
-        <v>0.75735024</v>
+        <v>0.994958939823902</v>
       </c>
       <c r="N15">
-        <v>0.75735024</v>
+        <v>0.994958939823902</v>
       </c>
       <c r="O15">
-        <v>0.76950231</v>
+        <v>0.9945145258455111</v>
       </c>
       <c r="P15">
-        <v>0.9608854599999997</v>
+        <v>0.9982994661612113</v>
       </c>
       <c r="Q15">
-        <v>0.9608854599999997</v>
+        <v>0.9982994661612113</v>
       </c>
       <c r="R15">
-        <v>1.06265307</v>
+        <v>0.9999697293298661</v>
       </c>
       <c r="S15">
-        <v>1.06265307</v>
+        <v>0.9999697293298661</v>
       </c>
       <c r="T15">
-        <v>0.9566266583333332</v>
+        <v>0.9995183079107979</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.1839119</v>
+        <v>1.015927599999999</v>
       </c>
       <c r="D16">
-        <v>0.41481266</v>
+        <v>1.1861928</v>
       </c>
       <c r="E16">
-        <v>1.0841971</v>
+        <v>0.8431308099999995</v>
       </c>
       <c r="F16">
-        <v>0.41481266</v>
+        <v>1.1861928</v>
       </c>
       <c r="G16">
-        <v>1.0841971</v>
+        <v>0.8431308099999995</v>
       </c>
       <c r="H16">
-        <v>1.5294462</v>
+        <v>1.0804637</v>
       </c>
       <c r="I16">
-        <v>0.6451683</v>
+        <v>1.059239499999999</v>
       </c>
       <c r="J16">
-        <v>1.1548406</v>
+        <v>0.9655495399999992</v>
       </c>
       <c r="K16">
-        <v>1.0841971</v>
+        <v>0.8431308099999995</v>
       </c>
       <c r="L16">
-        <v>1.1839119</v>
+        <v>1.015927599999999</v>
       </c>
       <c r="M16">
-        <v>0.79936228</v>
+        <v>1.1010602</v>
       </c>
       <c r="N16">
-        <v>0.79936228</v>
+        <v>1.1010602</v>
       </c>
       <c r="O16">
-        <v>0.7479642866666666</v>
+        <v>1.087119966666666</v>
       </c>
       <c r="P16">
-        <v>0.89430722</v>
+        <v>1.015083736666666</v>
       </c>
       <c r="Q16">
-        <v>0.89430722</v>
+        <v>1.015083736666666</v>
       </c>
       <c r="R16">
-        <v>0.9417796899999999</v>
+        <v>0.9720955049999994</v>
       </c>
       <c r="S16">
-        <v>0.9417796899999999</v>
+        <v>0.9720955049999994</v>
       </c>
       <c r="T16">
-        <v>1.002062793333333</v>
+        <v>1.025083991666666</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0730817</v>
+        <v>0.99179431</v>
       </c>
       <c r="D17">
-        <v>0.79415334</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="E17">
-        <v>1.0190713</v>
+        <v>1.3679559</v>
       </c>
       <c r="F17">
-        <v>0.79415334</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="G17">
-        <v>1.0190713</v>
+        <v>1.3679559</v>
       </c>
       <c r="H17">
-        <v>1.2239146</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="I17">
-        <v>0.8638246100000001</v>
+        <v>0.7938064500000001</v>
       </c>
       <c r="J17">
-        <v>1.0573352</v>
+        <v>1.1014624</v>
       </c>
       <c r="K17">
-        <v>1.0190713</v>
+        <v>1.3679559</v>
       </c>
       <c r="L17">
-        <v>1.0730817</v>
+        <v>0.99179431</v>
       </c>
       <c r="M17">
-        <v>0.93361752</v>
+        <v>0.75735024</v>
       </c>
       <c r="N17">
-        <v>0.93361752</v>
+        <v>0.75735024</v>
       </c>
       <c r="O17">
-        <v>0.9103532166666667</v>
+        <v>0.76950231</v>
       </c>
       <c r="P17">
-        <v>0.9621021133333333</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="Q17">
-        <v>0.9621021133333333</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="R17">
-        <v>0.9763444100000001</v>
+        <v>1.06265307</v>
       </c>
       <c r="S17">
-        <v>0.9763444100000001</v>
+        <v>1.06265307</v>
       </c>
       <c r="T17">
-        <v>1.005230125</v>
+        <v>0.9566266583333332</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9771771661643835</v>
+        <v>1.1839119</v>
       </c>
       <c r="D18">
-        <v>1.006078789452055</v>
+        <v>0.41481266</v>
       </c>
       <c r="E18">
-        <v>1.03755320849315</v>
+        <v>1.0841971</v>
       </c>
       <c r="F18">
-        <v>1.006078789452055</v>
+        <v>0.41481266</v>
       </c>
       <c r="G18">
-        <v>1.03755320849315</v>
+        <v>1.0841971</v>
       </c>
       <c r="H18">
-        <v>0.9299717589041092</v>
+        <v>1.5294462</v>
       </c>
       <c r="I18">
-        <v>1.016093403150685</v>
+        <v>0.6451683</v>
       </c>
       <c r="J18">
-        <v>0.9947795046575336</v>
+        <v>1.1548406</v>
       </c>
       <c r="K18">
-        <v>1.03755320849315</v>
+        <v>1.0841971</v>
       </c>
       <c r="L18">
-        <v>0.9771771661643835</v>
+        <v>1.1839119</v>
       </c>
       <c r="M18">
-        <v>0.9916279778082194</v>
+        <v>0.79936228</v>
       </c>
       <c r="N18">
-        <v>0.9916279778082194</v>
+        <v>0.79936228</v>
       </c>
       <c r="O18">
-        <v>0.9997831195890413</v>
+        <v>0.7479642866666666</v>
       </c>
       <c r="P18">
-        <v>1.00693638803653</v>
+        <v>0.89430722</v>
       </c>
       <c r="Q18">
-        <v>1.00693638803653</v>
+        <v>0.89430722</v>
       </c>
       <c r="R18">
-        <v>1.014590593150685</v>
+        <v>0.9417796899999999</v>
       </c>
       <c r="S18">
-        <v>1.014590593150685</v>
+        <v>0.9417796899999999</v>
       </c>
       <c r="T18">
-        <v>0.993608971803653</v>
+        <v>1.002062793333333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.057223345789474</v>
+        <v>1.0730817</v>
       </c>
       <c r="D19">
-        <v>0.920678644736842</v>
+        <v>0.79415334</v>
       </c>
       <c r="E19">
-        <v>0.957752965263158</v>
+        <v>1.0190713</v>
       </c>
       <c r="F19">
-        <v>0.920678644736842</v>
+        <v>0.79415334</v>
       </c>
       <c r="G19">
-        <v>0.957752965263158</v>
+        <v>1.0190713</v>
       </c>
       <c r="H19">
-        <v>1.186458268421053</v>
+        <v>1.2239146</v>
       </c>
       <c r="I19">
-        <v>0.9249941805263157</v>
+        <v>0.8638246100000001</v>
       </c>
       <c r="J19">
-        <v>1.028223237894737</v>
+        <v>1.0573352</v>
       </c>
       <c r="K19">
-        <v>0.957752965263158</v>
+        <v>1.0190713</v>
       </c>
       <c r="L19">
-        <v>1.057223345789474</v>
+        <v>1.0730817</v>
       </c>
       <c r="M19">
-        <v>0.9889509952631578</v>
+        <v>0.93361752</v>
       </c>
       <c r="N19">
-        <v>0.9889509952631578</v>
+        <v>0.93361752</v>
       </c>
       <c r="O19">
-        <v>0.9676320570175437</v>
+        <v>0.9103532166666667</v>
       </c>
       <c r="P19">
-        <v>0.9785516519298246</v>
+        <v>0.9621021133333333</v>
       </c>
       <c r="Q19">
-        <v>0.9785516519298246</v>
+        <v>0.9621021133333333</v>
       </c>
       <c r="R19">
-        <v>0.9733519802631579</v>
+        <v>0.9763444100000001</v>
       </c>
       <c r="S19">
-        <v>0.9733519802631579</v>
+        <v>0.9763444100000001</v>
       </c>
       <c r="T19">
-        <v>1.012555107105263</v>
+        <v>1.005230125</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.048737092631579</v>
+        <v>0.9771771661643835</v>
       </c>
       <c r="D20">
-        <v>0.7495736599999999</v>
+        <v>1.006078789452055</v>
       </c>
       <c r="E20">
-        <v>1.090005888421053</v>
+        <v>1.03755320849315</v>
       </c>
       <c r="F20">
-        <v>0.7495736599999999</v>
+        <v>1.006078789452055</v>
       </c>
       <c r="G20">
-        <v>1.090005888421053</v>
+        <v>1.03755320849315</v>
       </c>
       <c r="H20">
-        <v>1.128112141052632</v>
+        <v>0.9299717589041092</v>
       </c>
       <c r="I20">
-        <v>0.8681440084210525</v>
+        <v>1.016093403150685</v>
       </c>
       <c r="J20">
-        <v>1.060768799473684</v>
+        <v>0.9947795046575336</v>
       </c>
       <c r="K20">
-        <v>1.090005888421053</v>
+        <v>1.03755320849315</v>
       </c>
       <c r="L20">
-        <v>1.048737092631579</v>
+        <v>0.9771771661643835</v>
       </c>
       <c r="M20">
-        <v>0.8991553763157893</v>
+        <v>0.9916279778082194</v>
       </c>
       <c r="N20">
-        <v>0.8991553763157893</v>
+        <v>0.9916279778082194</v>
       </c>
       <c r="O20">
-        <v>0.8888182536842105</v>
+        <v>0.9997831195890413</v>
       </c>
       <c r="P20">
-        <v>0.9627722136842104</v>
+        <v>1.00693638803653</v>
       </c>
       <c r="Q20">
-        <v>0.9627722136842104</v>
+        <v>1.00693638803653</v>
       </c>
       <c r="R20">
-        <v>0.994580632368421</v>
+        <v>1.014590593150685</v>
       </c>
       <c r="S20">
-        <v>0.994580632368421</v>
+        <v>1.014590593150685</v>
       </c>
       <c r="T20">
-        <v>0.9908902649999999</v>
+        <v>0.993608971803653</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9910547260780442</v>
+        <v>1.057223345789474</v>
       </c>
       <c r="D21">
-        <v>1.111091644176128</v>
+        <v>0.920678644736842</v>
       </c>
       <c r="E21">
-        <v>0.9406665565917691</v>
+        <v>0.957752965263158</v>
       </c>
       <c r="F21">
-        <v>1.111091644176128</v>
+        <v>0.920678644736842</v>
       </c>
       <c r="G21">
-        <v>0.9406665565917691</v>
+        <v>0.957752965263158</v>
       </c>
       <c r="H21">
-        <v>0.9922189759790226</v>
+        <v>1.186458268421053</v>
       </c>
       <c r="I21">
-        <v>1.045755632239784</v>
+        <v>0.9249941805263157</v>
       </c>
       <c r="J21">
-        <v>0.9763642994547048</v>
+        <v>1.028223237894737</v>
       </c>
       <c r="K21">
-        <v>0.9406665565917691</v>
+        <v>0.957752965263158</v>
       </c>
       <c r="L21">
-        <v>0.9910547260780442</v>
+        <v>1.057223345789474</v>
       </c>
       <c r="M21">
-        <v>1.051073185127086</v>
+        <v>0.9889509952631578</v>
       </c>
       <c r="N21">
-        <v>1.051073185127086</v>
+        <v>0.9889509952631578</v>
       </c>
       <c r="O21">
-        <v>1.049300667497985</v>
+        <v>0.9676320570175437</v>
       </c>
       <c r="P21">
-        <v>1.014270975615314</v>
+        <v>0.9785516519298246</v>
       </c>
       <c r="Q21">
-        <v>1.014270975615314</v>
+        <v>0.9785516519298246</v>
       </c>
       <c r="R21">
-        <v>0.9958698708594276</v>
+        <v>0.9733519802631579</v>
       </c>
       <c r="S21">
-        <v>0.9958698708594276</v>
+        <v>0.9733519802631579</v>
       </c>
       <c r="T21">
-        <v>1.009525305753242</v>
+        <v>1.012555107105263</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.991220062347043</v>
+        <v>1.048737092631579</v>
       </c>
       <c r="D22">
-        <v>1.006778233622883</v>
+        <v>0.7495736599999999</v>
       </c>
       <c r="E22">
-        <v>1.008159857519185</v>
+        <v>1.090005888421053</v>
       </c>
       <c r="F22">
-        <v>1.006778233622883</v>
+        <v>0.7495736599999999</v>
       </c>
       <c r="G22">
-        <v>1.008159857519185</v>
+        <v>1.090005888421053</v>
       </c>
       <c r="H22">
-        <v>0.9655863454539725</v>
+        <v>1.128112141052632</v>
       </c>
       <c r="I22">
-        <v>1.012166626288525</v>
+        <v>0.8681440084210525</v>
       </c>
       <c r="J22">
-        <v>0.9961587785934316</v>
+        <v>1.060768799473684</v>
       </c>
       <c r="K22">
-        <v>1.008159857519185</v>
+        <v>1.090005888421053</v>
       </c>
       <c r="L22">
-        <v>0.991220062347043</v>
+        <v>1.048737092631579</v>
       </c>
       <c r="M22">
-        <v>0.9989991479849631</v>
+        <v>0.8991553763157893</v>
       </c>
       <c r="N22">
-        <v>0.9989991479849631</v>
+        <v>0.8991553763157893</v>
       </c>
       <c r="O22">
-        <v>1.003388307419484</v>
+        <v>0.8888182536842105</v>
       </c>
       <c r="P22">
-        <v>1.002052717829704</v>
+        <v>0.9627722136842104</v>
       </c>
       <c r="Q22">
-        <v>1.002052717829704</v>
+        <v>0.9627722136842104</v>
       </c>
       <c r="R22">
-        <v>1.003579502752074</v>
+        <v>0.994580632368421</v>
       </c>
       <c r="S22">
-        <v>1.003579502752074</v>
+        <v>0.994580632368421</v>
       </c>
       <c r="T22">
-        <v>0.9966783173041733</v>
+        <v>0.9908902649999999</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9777317828050288</v>
+        <v>0.9910547260780442</v>
       </c>
       <c r="D23">
-        <v>0.9992466283871493</v>
+        <v>1.111091644176128</v>
       </c>
       <c r="E23">
-        <v>1.038835074496009</v>
+        <v>0.9406665565917691</v>
       </c>
       <c r="F23">
-        <v>0.9992466283871493</v>
+        <v>1.111091644176128</v>
       </c>
       <c r="G23">
-        <v>1.038835074496009</v>
+        <v>0.9406665565917691</v>
       </c>
       <c r="H23">
-        <v>0.9239866028123825</v>
+        <v>0.9922189759790226</v>
       </c>
       <c r="I23">
-        <v>1.016547396473286</v>
+        <v>1.045755632239784</v>
       </c>
       <c r="J23">
-        <v>0.9955461548607842</v>
+        <v>0.9763642994547048</v>
       </c>
       <c r="K23">
-        <v>1.038835074496009</v>
+        <v>0.9406665565917691</v>
       </c>
       <c r="L23">
-        <v>0.9777317828050288</v>
+        <v>0.9910547260780442</v>
       </c>
       <c r="M23">
-        <v>0.988489205596089</v>
+        <v>1.051073185127086</v>
       </c>
       <c r="N23">
-        <v>0.988489205596089</v>
+        <v>1.051073185127086</v>
       </c>
       <c r="O23">
-        <v>0.9978419358884878</v>
+        <v>1.049300667497985</v>
       </c>
       <c r="P23">
-        <v>1.005271161896062</v>
+        <v>1.014270975615314</v>
       </c>
       <c r="Q23">
-        <v>1.005271161896062</v>
+        <v>1.014270975615314</v>
       </c>
       <c r="R23">
-        <v>1.013662140046049</v>
+        <v>0.9958698708594276</v>
       </c>
       <c r="S23">
-        <v>1.013662140046049</v>
+        <v>0.9958698708594276</v>
       </c>
       <c r="T23">
-        <v>0.9919822733057732</v>
+        <v>1.009525305753242</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.002834898811944</v>
+        <v>0.991220062347043</v>
       </c>
       <c r="D24">
-        <v>1.025225437342336</v>
+        <v>1.006778233622883</v>
       </c>
       <c r="E24">
-        <v>0.9794400280826275</v>
+        <v>1.008159857519185</v>
       </c>
       <c r="F24">
-        <v>1.025225437342336</v>
+        <v>1.006778233622883</v>
       </c>
       <c r="G24">
-        <v>0.9794400280826275</v>
+        <v>1.008159857519185</v>
       </c>
       <c r="H24">
-        <v>1.018092958882776</v>
+        <v>0.9655863454539725</v>
       </c>
       <c r="I24">
-        <v>1.004989063806324</v>
+        <v>1.012166626288525</v>
       </c>
       <c r="J24">
-        <v>0.9960142378716773</v>
+        <v>0.9961587785934316</v>
       </c>
       <c r="K24">
-        <v>0.9794400280826275</v>
+        <v>1.008159857519185</v>
       </c>
       <c r="L24">
-        <v>1.002834898811944</v>
+        <v>0.991220062347043</v>
       </c>
       <c r="M24">
-        <v>1.01403016807714</v>
+        <v>0.9989991479849631</v>
       </c>
       <c r="N24">
-        <v>1.01403016807714</v>
+        <v>0.9989991479849631</v>
       </c>
       <c r="O24">
-        <v>1.011016466653535</v>
+        <v>1.003388307419484</v>
       </c>
       <c r="P24">
-        <v>1.002500121412303</v>
+        <v>1.002052717829704</v>
       </c>
       <c r="Q24">
-        <v>1.002500121412303</v>
+        <v>1.002052717829704</v>
       </c>
       <c r="R24">
-        <v>0.996735098079884</v>
+        <v>1.003579502752074</v>
       </c>
       <c r="S24">
-        <v>0.996735098079884</v>
+        <v>1.003579502752074</v>
       </c>
       <c r="T24">
-        <v>1.004432770799615</v>
+        <v>0.9966783173041733</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.027700087903086</v>
+        <v>0.9777317828050288</v>
       </c>
       <c r="D25">
-        <v>0.7616295628231489</v>
+        <v>0.9992466283871493</v>
       </c>
       <c r="E25">
-        <v>1.118088313370829</v>
+        <v>1.038835074496009</v>
       </c>
       <c r="F25">
-        <v>0.7616295628231489</v>
+        <v>0.9992466283871493</v>
       </c>
       <c r="G25">
-        <v>1.118088313370829</v>
+        <v>1.038835074496009</v>
       </c>
       <c r="H25">
-        <v>1.059652676860525</v>
+        <v>0.9239866028123825</v>
       </c>
       <c r="I25">
-        <v>0.8880981190138727</v>
+        <v>1.016547396473286</v>
       </c>
       <c r="J25">
-        <v>1.0540523544272</v>
+        <v>0.9955461548607842</v>
       </c>
       <c r="K25">
-        <v>1.118088313370829</v>
+        <v>1.038835074496009</v>
       </c>
       <c r="L25">
-        <v>1.027700087903086</v>
+        <v>0.9777317828050288</v>
       </c>
       <c r="M25">
-        <v>0.8946648253631175</v>
+        <v>0.988489205596089</v>
       </c>
       <c r="N25">
-        <v>0.8946648253631175</v>
+        <v>0.988489205596089</v>
       </c>
       <c r="O25">
-        <v>0.8924759232467027</v>
+        <v>0.9978419358884878</v>
       </c>
       <c r="P25">
-        <v>0.9691393213656879</v>
+        <v>1.005271161896062</v>
       </c>
       <c r="Q25">
-        <v>0.9691393213656879</v>
+        <v>1.005271161896062</v>
       </c>
       <c r="R25">
-        <v>1.006376569366973</v>
+        <v>1.013662140046049</v>
       </c>
       <c r="S25">
-        <v>1.006376569366973</v>
+        <v>1.013662140046049</v>
       </c>
       <c r="T25">
-        <v>0.9848701857331101</v>
+        <v>0.9919822733057732</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.022983676639145</v>
+        <v>1.002834898811944</v>
       </c>
       <c r="D26">
-        <v>0.9620042943273465</v>
+        <v>1.025225437342336</v>
       </c>
       <c r="E26">
-        <v>0.9838550322449557</v>
+        <v>0.9794400280826275</v>
       </c>
       <c r="F26">
-        <v>0.9620042943273465</v>
+        <v>1.025225437342336</v>
       </c>
       <c r="G26">
-        <v>0.9838550322449557</v>
+        <v>0.9794400280826275</v>
       </c>
       <c r="H26">
-        <v>1.06512062059559</v>
+        <v>1.018092958882776</v>
       </c>
       <c r="I26">
-        <v>0.9721712081815933</v>
+        <v>1.004989063806324</v>
       </c>
       <c r="J26">
-        <v>1.011575920409492</v>
+        <v>0.9960142378716773</v>
       </c>
       <c r="K26">
-        <v>0.9838550322449557</v>
+        <v>0.9794400280826275</v>
       </c>
       <c r="L26">
-        <v>1.022983676639145</v>
+        <v>1.002834898811944</v>
       </c>
       <c r="M26">
-        <v>0.9924939854832457</v>
+        <v>1.01403016807714</v>
       </c>
       <c r="N26">
-        <v>0.9924939854832457</v>
+        <v>1.01403016807714</v>
       </c>
       <c r="O26">
-        <v>0.9857197263826949</v>
+        <v>1.011016466653535</v>
       </c>
       <c r="P26">
-        <v>0.9896143344038157</v>
+        <v>1.002500121412303</v>
       </c>
       <c r="Q26">
-        <v>0.9896143344038156</v>
+        <v>1.002500121412303</v>
       </c>
       <c r="R26">
-        <v>0.9881745088641006</v>
+        <v>0.996735098079884</v>
       </c>
       <c r="S26">
-        <v>0.9881745088641006</v>
+        <v>0.996735098079884</v>
       </c>
       <c r="T26">
-        <v>1.002951792066354</v>
+        <v>1.004432770799615</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9960588942088906</v>
+        <v>1.027700087903086</v>
       </c>
       <c r="D27">
-        <v>1.007974576759556</v>
+        <v>0.7616295628231489</v>
       </c>
       <c r="E27">
-        <v>1.003703798440709</v>
+        <v>1.118088313370829</v>
       </c>
       <c r="F27">
-        <v>1.007974576759556</v>
+        <v>0.7616295628231489</v>
       </c>
       <c r="G27">
-        <v>1.003703798440709</v>
+        <v>1.118088313370829</v>
       </c>
       <c r="H27">
-        <v>0.9937235104697414</v>
+        <v>1.059652676860525</v>
       </c>
       <c r="I27">
-        <v>1.002783140911989</v>
+        <v>0.8880981190138727</v>
       </c>
       <c r="J27">
-        <v>0.9982877289120978</v>
+        <v>1.0540523544272</v>
       </c>
       <c r="K27">
-        <v>1.003703798440709</v>
+        <v>1.118088313370829</v>
       </c>
       <c r="L27">
-        <v>0.9960588942088906</v>
+        <v>1.027700087903086</v>
       </c>
       <c r="M27">
-        <v>1.002016735484224</v>
+        <v>0.8946648253631175</v>
       </c>
       <c r="N27">
-        <v>1.002016735484224</v>
+        <v>0.8946648253631175</v>
       </c>
       <c r="O27">
-        <v>1.002272203960145</v>
+        <v>0.8924759232467027</v>
       </c>
       <c r="P27">
-        <v>1.002579089803052</v>
+        <v>0.9691393213656879</v>
       </c>
       <c r="Q27">
-        <v>1.002579089803052</v>
+        <v>0.9691393213656879</v>
       </c>
       <c r="R27">
-        <v>1.002860266962466</v>
+        <v>1.006376569366973</v>
       </c>
       <c r="S27">
-        <v>1.002860266962466</v>
+        <v>1.006376569366973</v>
       </c>
       <c r="T27">
-        <v>1.000421941617164</v>
+        <v>0.9848701857331101</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.010070410935354</v>
+        <v>1.022983676639145</v>
       </c>
       <c r="D28">
-        <v>0.960230532863898</v>
+        <v>0.9620042943273465</v>
       </c>
       <c r="E28">
-        <v>1.009266827950605</v>
+        <v>0.9838550322449557</v>
       </c>
       <c r="F28">
-        <v>0.960230532863898</v>
+        <v>0.9620042943273465</v>
       </c>
       <c r="G28">
-        <v>1.009266827950605</v>
+        <v>0.9838550322449557</v>
       </c>
       <c r="H28">
-        <v>1.025301838798626</v>
+        <v>1.06512062059559</v>
       </c>
       <c r="I28">
-        <v>0.9787539263913138</v>
+        <v>0.9721712081815933</v>
       </c>
       <c r="J28">
-        <v>1.009836118813313</v>
+        <v>1.011575920409492</v>
       </c>
       <c r="K28">
-        <v>1.009266827950605</v>
+        <v>0.9838550322449557</v>
       </c>
       <c r="L28">
-        <v>1.010070410935354</v>
+        <v>1.022983676639145</v>
       </c>
       <c r="M28">
-        <v>0.9851504718996261</v>
+        <v>0.9924939854832457</v>
       </c>
       <c r="N28">
-        <v>0.9851504718996261</v>
+        <v>0.9924939854832457</v>
       </c>
       <c r="O28">
-        <v>0.983018290063522</v>
+        <v>0.9857197263826949</v>
       </c>
       <c r="P28">
-        <v>0.9931892572499524</v>
+        <v>0.9896143344038157</v>
       </c>
       <c r="Q28">
-        <v>0.9931892572499524</v>
+        <v>0.9896143344038156</v>
       </c>
       <c r="R28">
-        <v>0.9972086499251156</v>
+        <v>0.9881745088641006</v>
       </c>
       <c r="S28">
-        <v>0.9972086499251156</v>
+        <v>0.9881745088641006</v>
       </c>
       <c r="T28">
-        <v>0.9989099426255184</v>
+        <v>1.002951792066354</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9960588942088906</v>
+      </c>
+      <c r="D29">
+        <v>1.007974576759556</v>
+      </c>
+      <c r="E29">
+        <v>1.003703798440709</v>
+      </c>
+      <c r="F29">
+        <v>1.007974576759556</v>
+      </c>
+      <c r="G29">
+        <v>1.003703798440709</v>
+      </c>
+      <c r="H29">
+        <v>0.9937235104697414</v>
+      </c>
+      <c r="I29">
+        <v>1.002783140911989</v>
+      </c>
+      <c r="J29">
+        <v>0.9982877289120978</v>
+      </c>
+      <c r="K29">
+        <v>1.003703798440709</v>
+      </c>
+      <c r="L29">
+        <v>0.9960588942088906</v>
+      </c>
+      <c r="M29">
+        <v>1.002016735484224</v>
+      </c>
+      <c r="N29">
+        <v>1.002016735484224</v>
+      </c>
+      <c r="O29">
+        <v>1.002272203960145</v>
+      </c>
+      <c r="P29">
+        <v>1.002579089803052</v>
+      </c>
+      <c r="Q29">
+        <v>1.002579089803052</v>
+      </c>
+      <c r="R29">
+        <v>1.002860266962466</v>
+      </c>
+      <c r="S29">
+        <v>1.002860266962466</v>
+      </c>
+      <c r="T29">
+        <v>1.000421941617164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.010070410935354</v>
+      </c>
+      <c r="D30">
+        <v>0.960230532863898</v>
+      </c>
+      <c r="E30">
+        <v>1.009266827950605</v>
+      </c>
+      <c r="F30">
+        <v>0.960230532863898</v>
+      </c>
+      <c r="G30">
+        <v>1.009266827950605</v>
+      </c>
+      <c r="H30">
+        <v>1.025301838798626</v>
+      </c>
+      <c r="I30">
+        <v>0.9787539263913138</v>
+      </c>
+      <c r="J30">
+        <v>1.009836118813313</v>
+      </c>
+      <c r="K30">
+        <v>1.009266827950605</v>
+      </c>
+      <c r="L30">
+        <v>1.010070410935354</v>
+      </c>
+      <c r="M30">
+        <v>0.9851504718996261</v>
+      </c>
+      <c r="N30">
+        <v>0.9851504718996261</v>
+      </c>
+      <c r="O30">
+        <v>0.983018290063522</v>
+      </c>
+      <c r="P30">
+        <v>0.9931892572499524</v>
+      </c>
+      <c r="Q30">
+        <v>0.9931892572499524</v>
+      </c>
+      <c r="R30">
+        <v>0.9972086499251156</v>
+      </c>
+      <c r="S30">
+        <v>0.9972086499251156</v>
+      </c>
+      <c r="T30">
+        <v>0.9989099426255184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.007769953449376</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9440771880697258</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.028553002665134</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9440771880697258</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.028553002665134</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.026326159283887</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9686556015666984</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.013829143310322</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.028553002665134</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.007769953449376</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9759235707595508</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9759235707595508</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9735009143619333</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9934667147280786</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9934667147280786</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.002238286712342</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.002238286712342</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.998201841390857</v>
       </c>
     </row>
